--- a/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.125315458652596E-08</v>
+        <v>-1.125315458652596E-08</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.826765999281811E-06</v>
+        <v>-4.826765999281811E-06</v>
       </c>
       <c r="C4">
-        <v>3.26967784961336E-08</v>
+        <v>-3.26967784961336E-08</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2287.18665932842</v>
+        <v>-2287.18665932842</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1272.598257205794</v>
+        <v>-1272.598257205794</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>683638.8549154364</v>
+        <v>-683638.8549154364</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11449376.39635996</v>
+        <v>-11449376.39635996</v>
       </c>
       <c r="C4">
-        <v>1986357.517676394</v>
+        <v>-1986357.517676394</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>330656904.461571</v>
+        <v>-330656904.461571</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>128136086.5481714</v>
+        <v>-128136086.5481714</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>590953.1549019583</v>
+        <v>-590953.1549019583</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10188886.11060164</v>
+        <v>-10188886.11060164</v>
       </c>
       <c r="C4">
-        <v>1717053.139086555</v>
+        <v>-1717053.139086555</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>325918588.7172922</v>
+        <v>-325918588.7172922</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>131882275.5988688</v>
+        <v>-131882275.5988688</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.436678692641782E-07</v>
+        <v>-2.436678692641782E-07</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8.82422342945994E-05</v>
+        <v>-8.82422342945994E-05</v>
       </c>
       <c r="C4">
-        <v>7.079929709217004E-07</v>
+        <v>-7.079929709217004E-07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5338.389427300423</v>
+        <v>-5338.389427300423</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2970.297299528549</v>
+        <v>-2970.297299528549</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.847391139317813E-06</v>
+        <v>-3.847391139317813E-06</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001188200410868584</v>
+        <v>-0.001188200410868584</v>
       </c>
       <c r="C4">
-        <v>1.117884722039506E-05</v>
+        <v>-1.117884722039506E-05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11610.79187055819</v>
+        <v>-11610.79187055819</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6460.27838704948</v>
+        <v>-6460.27838704948</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.677544931724572E-05</v>
+        <v>-4.677544931724572E-05</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.01249070194590728</v>
+        <v>-0.01249070194590728</v>
       </c>
       <c r="C4">
-        <v>0.0001359091349561973</v>
+        <v>-0.0001359091349561973</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23940.03691553224</v>
+        <v>-23940.03691553224</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13320.26479415017</v>
+        <v>-13320.26479415017</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0004565785838136936</v>
+        <v>-0.0004565785838136936</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1070179889364461</v>
+        <v>-0.1070179889364461</v>
       </c>
       <c r="C4">
-        <v>0.001326619012139905</v>
+        <v>-0.001326619012139905</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>47395.76445385617</v>
+        <v>-47395.76445385617</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>26370.71923032272</v>
+        <v>-26370.71923032272</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003698768777510809</v>
+        <v>-0.003698768777510809</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.7721477126209654</v>
+        <v>-0.7721477126209654</v>
       </c>
       <c r="C4">
-        <v>0.01074701520331832</v>
+        <v>-0.01074701520331832</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>90836.33074454608</v>
+        <v>-90836.33074454608</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>50538.44243534981</v>
+        <v>-50538.44243534981</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02553847793218492</v>
+        <v>-0.02553847793218492</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.812432622130673</v>
+        <v>-4.812432622130673</v>
       </c>
       <c r="C4">
-        <v>0.07420372213466882</v>
+        <v>-0.07420372213466882</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>169002.470623507</v>
+        <v>-169002.470623507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>94013.59367901544</v>
+        <v>-94013.59367901544</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1535670020381944</v>
+        <v>-0.1535670020381944</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>26.43710292259309</v>
+        <v>-26.43710292259309</v>
       </c>
       <c r="C4">
-        <v>0.4461989934778147</v>
+        <v>-0.4461989934778147</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>304931.6515087996</v>
+        <v>-304931.6515087996</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>169555.2455245817</v>
+        <v>-169555.2455245817</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8185436361408228</v>
+        <v>-0.8185436361408228</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>130.1119661307391</v>
+        <v>-130.1119661307391</v>
       </c>
       <c r="C4">
-        <v>2.378332204941182</v>
+        <v>-2.378332204941182</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>532669.8582553903</v>
+        <v>-532669.8582553903</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>295838.3392183481</v>
+        <v>-295838.3392183481</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.924415832476695</v>
+        <v>-3.924415832476695</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>581.3717752578971</v>
+        <v>-581.3717752578971</v>
       </c>
       <c r="C4">
-        <v>11.40264751671056</v>
+        <v>-11.40264751671056</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>900785.5547957035</v>
+        <v>-900785.5547957035</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>498779.415279917</v>
+        <v>-498779.415279917</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>17.13118674401122</v>
+        <v>-17.13118674401122</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2384.445483411101</v>
+        <v>-2384.445483411101</v>
       </c>
       <c r="C4">
-        <v>49.77578633954927</v>
+        <v>-49.77578633954927</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1478631.857240594</v>
+        <v>-1478631.857240594</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>812773.5780484368</v>
+        <v>-812773.5780484368</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>68.78530515464971</v>
+        <v>-68.78530515464971</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9057.708517928275</v>
+        <v>-9057.708517928275</v>
       </c>
       <c r="C4">
-        <v>199.860214230369</v>
+        <v>-199.860214230369</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2371590.561877393</v>
+        <v>-2371590.561877393</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1281744.148501395</v>
+        <v>-1281744.148501395</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>256.1656006837658</v>
+        <v>-256.1656006837658</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>32089.0705457297</v>
+        <v>-32089.0705457297</v>
       </c>
       <c r="C4">
-        <v>744.3059490105032</v>
+        <v>-744.3059490105032</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3763490.537108452</v>
+        <v>-3763490.537108452</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1959875.808837294</v>
+        <v>-1959875.808837294</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>890.3516653061916</v>
+        <v>-890.3516653061916</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>106439.9258964056</v>
+        <v>-106439.9258964056</v>
       </c>
       <c r="C4">
-        <v>2586.975141978164</v>
+        <v>-2586.975141978164</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6034042.340366801</v>
+        <v>-6034042.340366801</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2911859.670496133</v>
+        <v>-2911859.670496133</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2895.869631717003</v>
+        <v>-2895.869631717003</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>329824.0184229118</v>
+        <v>-329824.0184229118</v>
       </c>
       <c r="C4">
-        <v>8414.139090855755</v>
+        <v>-8414.139090855755</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10055134.96200703</v>
+        <v>-10055134.96200703</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4212395.223567942</v>
+        <v>-4212395.223567942</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8770.005613287902</v>
+        <v>-8770.005613287902</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>938981.9517928477</v>
+        <v>-938981.9517928477</v>
       </c>
       <c r="C4">
-        <v>25481.82633968843</v>
+        <v>-25481.82633968843</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17769537.49195379</v>
+        <v>-17769537.49195379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5944607.504760655</v>
+        <v>-5944607.504760655</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>24174.11099431143</v>
+        <v>-24174.11099431143</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2338871.384210942</v>
+        <v>-2338871.384210942</v>
       </c>
       <c r="C4">
-        <v>70239.46453809123</v>
+        <v>-70239.46453809123</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>32437700.96325228</v>
+        <v>-32437700.96325228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8197041.15514928</v>
+        <v>-8197041.15514928</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57106.39488070462</v>
+        <v>-57106.39488070462</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4593929.056879821</v>
+        <v>-4593929.056879821</v>
       </c>
       <c r="C4">
-        <v>165926.3746685605</v>
+        <v>-165926.3746685605</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>54885698.11172912</v>
+        <v>-54885698.11172912</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11059115.42091583</v>
+        <v>-11059115.42091583</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>102211.304780186</v>
+        <v>-102211.304780186</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6343796.233558833</v>
+        <v>-6343796.233558833</v>
       </c>
       <c r="C4">
-        <v>296981.6478127907</v>
+        <v>-296981.6478127907</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>75177369.6446491</v>
+        <v>-75177369.6446491</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14614897.31979977</v>
+        <v>-14614897.31979977</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>115734.9113991057</v>
+        <v>-115734.9113991057</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6800599.950036286</v>
+        <v>-6800599.950036286</v>
       </c>
       <c r="C4">
-        <v>336275.3735576685</v>
+        <v>-336275.3735576685</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>86613045.91610509</v>
+        <v>-86613045.91610509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>18935064.92801956</v>
+        <v>-18935064.92801956</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.006410968090021747</v>
+        <v>-0.006410968090021747</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003567084003436689</v>
+        <v>-0.003567084003436689</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>77234.12247590261</v>
+        <v>-77234.12247590261</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7236592.564125663</v>
+        <v>-7236592.564125663</v>
       </c>
       <c r="C4">
-        <v>224408.8069279288</v>
+        <v>-224408.8069279288</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>98097022.15484625</v>
+        <v>-98097022.15484625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>24067888.76780985</v>
+        <v>-24067888.76780985</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>54888.85053239244</v>
+        <v>-54888.85053239244</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7950854.944504507</v>
+        <v>-7950854.944504507</v>
       </c>
       <c r="C4">
-        <v>159483.1541649576</v>
+        <v>-159483.1541649576</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>113500438.1795544</v>
+        <v>-113500438.1795544</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>30030482.27256715</v>
+        <v>-30030482.27256715</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>88373.01635433348</v>
+        <v>-88373.01635433348</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8703553.930969652</v>
+        <v>-8703553.930969652</v>
       </c>
       <c r="C4">
-        <v>256773.5934448649</v>
+        <v>-256773.5934448649</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>131990412.4546964</v>
+        <v>-131990412.4546964</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>36801608.11742842</v>
+        <v>-36801608.11742842</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>137868.7661098198</v>
+        <v>-137868.7661098198</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9518132.518327044</v>
+        <v>-9518132.518327044</v>
       </c>
       <c r="C4">
-        <v>400586.7396885803</v>
+        <v>-400586.7396885803</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>152660909.5015236</v>
+        <v>-152660909.5015236</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>44318208.93913035</v>
+        <v>-44318208.93913035</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>194889.9529820448</v>
+        <v>-194889.9529820448</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10140622.13974321</v>
+        <v>-10140622.13974321</v>
       </c>
       <c r="C4">
-        <v>566265.5369015987</v>
+        <v>-566265.5369015987</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>173265318.8950385</v>
+        <v>-173265318.8950385</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>52478965.99601345</v>
+        <v>-52478965.99601345</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>269727.8705325979</v>
+        <v>-269727.8705325979</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10834464.54192657</v>
+        <v>-10834464.54192657</v>
       </c>
       <c r="C4">
-        <v>783712.0133049557</v>
+        <v>-783712.0133049557</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>195757035.9189584</v>
+        <v>-195757035.9189584</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>61159146.00124408</v>
+        <v>-61159146.00124408</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>323085.5423042857</v>
+        <v>-323085.5423042857</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10935112.80902294</v>
+        <v>-10935112.80902294</v>
       </c>
       <c r="C4">
-        <v>938746.2271846097</v>
+        <v>-938746.2271846097</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>214109117.8730785</v>
+        <v>-214109117.8730785</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>70241400.26060626</v>
+        <v>-70241400.26060626</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>362634.6164198295</v>
+        <v>-362634.6164198295</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10514467.46881145</v>
+        <v>-10514467.46881145</v>
       </c>
       <c r="C4">
-        <v>1053658.655174486</v>
+        <v>-1053658.655174486</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>228926940.5796344</v>
+        <v>-228926940.5796344</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>79666353.69198331</v>
+        <v>-79666353.69198331</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>523112.7278647045</v>
+        <v>-523112.7278647045</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10525095.35833599</v>
+        <v>-10525095.35833599</v>
       </c>
       <c r="C4">
-        <v>1519938.330179892</v>
+        <v>-1519938.330179892</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>250571829.0945449</v>
+        <v>-250571829.0945449</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>89503930.95206773</v>
+        <v>-89503930.95206773</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>840494.247984493</v>
+        <v>-840494.247984493</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10347508.30605527</v>
+        <v>-10347508.30605527</v>
       </c>
       <c r="C4">
-        <v>2442111.146907059</v>
+        <v>-2442111.146907059</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>275895586.6381068</v>
+        <v>-275895586.6381068</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>100040740.1086992</v>
+        <v>-100040740.1086992</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3925887260554993</v>
+        <v>-0.3925887260554993</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2184376750871349</v>
+        <v>-0.2184376750871349</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1178331.933150186</v>
+        <v>-1178331.933150186</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10275490.51292129</v>
+        <v>-10275490.51292129</v>
       </c>
       <c r="C4">
-        <v>3423720.692441557</v>
+        <v>-3423720.692441557</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>304810913.1143236</v>
+        <v>-304810913.1143236</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>111870307.2953822</v>
+        <v>-111870307.2953822</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1517614.116242593</v>
+        <v>-1517614.116242593</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10173129.08481809</v>
+        <v>-10173129.08481809</v>
       </c>
       <c r="C4">
-        <v>4409527.32141472</v>
+        <v>-4409527.32141472</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>337609584.8917047</v>
+        <v>-337609584.8917047</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>125964698.6047302</v>
+        <v>-125964698.6047302</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1570747.731920956</v>
+        <v>-1570747.731920956</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9725185.197679555</v>
+        <v>-9725185.197679555</v>
       </c>
       <c r="C4">
-        <v>4563910.525624348</v>
+        <v>-4563910.525624348</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>367494288.4038106</v>
+        <v>-367494288.4038106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>143701044.8261951</v>
+        <v>-143701044.8261951</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1378568.634792155</v>
+        <v>-1378568.634792155</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9142810.477635879</v>
+        <v>-9142810.477635879</v>
       </c>
       <c r="C4">
-        <v>4005521.558149297</v>
+        <v>-4005521.558149297</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>400123061.9496393</v>
+        <v>-400123061.9496393</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>166817268.6545134</v>
+        <v>-166817268.6545134</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1350678.128574459</v>
+        <v>-1350678.128574459</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8310779.826103078</v>
+        <v>-8310779.826103078</v>
       </c>
       <c r="C4">
-        <v>3924483.863613675</v>
+        <v>-3924483.863613675</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>448109199.4540626</v>
+        <v>-448109199.4540626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>197281397.656517</v>
+        <v>-197281397.656517</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1241824.67239143</v>
+        <v>-1241824.67239143</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4449,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8181923.828575392</v>
+        <v>-8181923.828575392</v>
       </c>
       <c r="C4">
-        <v>3608203.009388438</v>
+        <v>-3608203.009388438</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>516053984.6992599</v>
+        <v>-516053984.6992599</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>237077691.0657949</v>
+        <v>-237077691.0657949</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1077324.578529103</v>
+        <v>-1077324.578529103</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9413069.237654163</v>
+        <v>-9413069.237654163</v>
       </c>
       <c r="C4">
-        <v>3130237.200756445</v>
+        <v>-3130237.200756445</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>612485454.1171471</v>
+        <v>-612485454.1171471</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>287934944.8339855</v>
+        <v>-287934944.8339855</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>917046.5775336452</v>
+        <v>-917046.5775336452</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12659630.8941817</v>
+        <v>-12659630.8941817</v>
       </c>
       <c r="C4">
-        <v>2664538.959782629</v>
+        <v>-2664538.959782629</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>745781122.8981508</v>
+        <v>-745781122.8981508</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>351038364.5002775</v>
+        <v>-351038364.5002775</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1018249.687764483</v>
+        <v>-1018249.687764483</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>19270990.892695</v>
+        <v>-19270990.892695</v>
       </c>
       <c r="C4">
-        <v>2958591.232227155</v>
+        <v>-2958591.232227155</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>932731838.2571456</v>
+        <v>-932731838.2571456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>426768186.2659416</v>
+        <v>-426768186.2659416</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1576310.90232483</v>
+        <v>-1576310.90232483</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4829,16 +4829,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>29226060.62225529</v>
+        <v>-29226060.62225529</v>
       </c>
       <c r="C4">
-        <v>4580074.681997843</v>
+        <v>-4580074.681997843</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1176784777.735983</v>
+        <v>-1176784777.735983</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>514495635.2233338</v>
+        <v>-514495635.2233338</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.323971113142942</v>
+        <v>-4.323971113142942</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.40587193266816</v>
+        <v>-2.40587193266816</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2244920.136286289</v>
+        <v>-2244920.136286289</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>40860510.59042751</v>
+        <v>-40860510.59042751</v>
       </c>
       <c r="C4">
-        <v>6522762.65053275</v>
+        <v>-6522762.65053275</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1454186740.864925</v>
+        <v>-1454186740.864925</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>612449257.4833214</v>
+        <v>-612449257.4833214</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3131882.064991609</v>
+        <v>-3131882.064991609</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>56950590.37464238</v>
+        <v>-56950590.37464238</v>
       </c>
       <c r="C4">
-        <v>9099888.690559391</v>
+        <v>-9099888.690559391</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1782526286.094585</v>
+        <v>-1782526286.094585</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>717655732.5318811</v>
+        <v>-717655732.5318811</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4449042.303618602</v>
+        <v>-4449042.303618602</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5209,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>80623568.95095938</v>
+        <v>-80623568.95095938</v>
       </c>
       <c r="C4">
-        <v>12926984.12723522</v>
+        <v>-12926984.12723522</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2182368275.291069</v>
+        <v>-2182368275.291069</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>825966206.5631379</v>
+        <v>-825966206.5631379</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5357051.081553567</v>
+        <v>-5357051.081553567</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>96657034.97783314</v>
+        <v>-96657034.97783314</v>
       </c>
       <c r="C4">
-        <v>15565263.16769494</v>
+        <v>-15565263.16769494</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2512641323.992754</v>
+        <v>-2512641323.992754</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>932195459.4686735</v>
+        <v>-932195459.4686735</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5450213.259936684</v>
+        <v>-5450213.259936684</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>98072469.61588129</v>
+        <v>-98072469.61588129</v>
       </c>
       <c r="C4">
-        <v>15835951.98542942</v>
+        <v>-15835951.98542942</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2701774220.987757</v>
+        <v>-2701774220.987757</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1030409558.194976</v>
+        <v>-1030409558.194976</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5378224.261476698</v>
+        <v>-5378224.261476698</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>96791243.69260682</v>
+        <v>-96791243.69260682</v>
       </c>
       <c r="C4">
-        <v>15626783.23024116</v>
+        <v>-15626783.23024116</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2841573106.889879</v>
+        <v>-2841573106.889879</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1114382293.110486</v>
+        <v>-1114382293.110486</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5252888.748442777</v>
+        <v>-5252888.748442777</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>94492797.6325893</v>
+        <v>-94492797.6325893</v>
       </c>
       <c r="C4">
-        <v>15262612.67914288</v>
+        <v>-15262612.67914288</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2936408994.475011</v>
+        <v>-2936408994.475011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1178199197.471232</v>
+        <v>-1178199197.471232</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5064617.613802466</v>
+        <v>-5064617.613802466</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>90727541.01441841</v>
+        <v>-90727541.01441841</v>
       </c>
       <c r="C4">
-        <v>14715578.55291477</v>
+        <v>-14715578.55291477</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2973904613.870537</v>
+        <v>-2973904613.870537</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1216933802.862411</v>
+        <v>-1216933802.862411</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4896880.658589261</v>
+        <v>-4896880.658589261</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5779,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>87302557.22713925</v>
+        <v>-87302557.22713925</v>
       </c>
       <c r="C4">
-        <v>14228207.83139381</v>
+        <v>-14228207.83139381</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2963361024.074817</v>
+        <v>-2963361024.074817</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1227276686.947677</v>
+        <v>-1227276686.947677</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4734075.83434361</v>
+        <v>-4734075.83434361</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>84076115.15382193</v>
+        <v>-84076115.15382193</v>
       </c>
       <c r="C4">
-        <v>13755167.73978823</v>
+        <v>-13755167.73978823</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2901130120.334378</v>
+        <v>-2901130120.334378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1207985504.799038</v>
+        <v>-1207985504.799038</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.11679058346222</v>
+        <v>-24.11679058346222</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.4186626257578</v>
+        <v>-13.4186626257578</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4321997.78345099</v>
+        <v>-4321997.78345099</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>76370893.90710761</v>
+        <v>-76370893.90710761</v>
       </c>
       <c r="C4">
-        <v>12557847.9438541</v>
+        <v>-12557847.9438541</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2748606027.993998</v>
+        <v>-2748606027.993998</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1160054812.027021</v>
+        <v>-1160054812.027021</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3377176.817295955</v>
+        <v>-3377176.817295955</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>59014425.77824229</v>
+        <v>-59014425.77824229</v>
       </c>
       <c r="C4">
-        <v>9812608.676825499</v>
+        <v>-9812608.676825499</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2466612877.128782</v>
+        <v>-2466612877.128782</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1086572964.613786</v>
+        <v>-1086572964.613786</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1913095.39848473</v>
+        <v>-1913095.39848473</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>32040049.24411725</v>
+        <v>-32040049.24411725</v>
       </c>
       <c r="C4">
-        <v>5558624.117820686</v>
+        <v>-5558624.117820686</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2064306275.015632</v>
+        <v>-2064306275.015632</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>992316718.5680959</v>
+        <v>-992316718.5680959</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>933218.4291540054</v>
+        <v>-933218.4291540054</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13231594.00656222</v>
+        <v>-13231594.00656222</v>
       </c>
       <c r="C4">
-        <v>2711527.335018883</v>
+        <v>-2711527.335018883</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1706786307.568264</v>
+        <v>-1706786307.568264</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>883197468.7500741</v>
+        <v>-883197468.7500741</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>841949.1201046124</v>
+        <v>-841949.1201046124</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10256643.06037544</v>
+        <v>-10256643.06037544</v>
       </c>
       <c r="C4">
-        <v>2446338.373244882</v>
+        <v>-2446338.373244882</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1471600765.552769</v>
+        <v>-1471600765.552769</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>765685553.1688989</v>
+        <v>-765685553.1688989</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>802862.9856002571</v>
+        <v>-802862.9856002571</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6539,16 +6539,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9189335.373054815</v>
+        <v>-9189335.373054815</v>
       </c>
       <c r="C4">
-        <v>2332771.046649262</v>
+        <v>-2332771.046649262</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1248265042.117021</v>
+        <v>-1248265042.117021</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>646294381.4950713</v>
+        <v>-646294381.4950713</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>612484.2954864562</v>
+        <v>-612484.2954864562</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6812541.576623338</v>
+        <v>-6812541.576623338</v>
       </c>
       <c r="C4">
-        <v>1779613.279805085</v>
+        <v>-1779613.279805085</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1019284240.727897</v>
+        <v>-1019284240.727897</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>531134142.879609</v>
+        <v>-531134142.879609</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>293324.5521292674</v>
+        <v>-293324.5521292674</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3095262.362053989</v>
+        <v>-3095262.362053989</v>
       </c>
       <c r="C4">
-        <v>852273.7188674028</v>
+        <v>-852273.7188674028</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>794490707.6823961</v>
+        <v>-794490707.6823961</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>425498500.1110631</v>
+        <v>-425498500.1110631</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>54682.07082035685</v>
+        <v>-54682.07082035685</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>583893.994808147</v>
+        <v>-583893.994808147</v>
       </c>
       <c r="C4">
-        <v>158882.3421535403</v>
+        <v>-158882.3421535403</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>604920949.8416867</v>
+        <v>-604920949.8416867</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>333465136.8563608</v>
+        <v>-333465136.8563608</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8510.526924988404</v>
+        <v>-8510.526924988404</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>547742.9782701432</v>
+        <v>-547742.9782701432</v>
       </c>
       <c r="C4">
-        <v>24727.89399737843</v>
+        <v>-24727.89399737843</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>467116950.8727795</v>
+        <v>-467116950.8727795</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>257559923.9103508</v>
+        <v>-257559923.9103508</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>95.78303928226676</v>
+        <v>-95.78303928226676</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>53.29400215797405</v>
+        <v>-53.29400215797405</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>16306.59384957895</v>
+        <v>-16306.59384957895</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1356284.668665194</v>
+        <v>-1356284.668665194</v>
       </c>
       <c r="C4">
-        <v>47379.87761800551</v>
+        <v>-47379.87761800551</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>367248481.6579053</v>
+        <v>-367248481.6579053</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>198594728.0774182</v>
+        <v>-198594728.0774182</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>47701.83031624514</v>
+        <v>-47701.83031624514</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2867718.308096782</v>
+        <v>-2867718.308096782</v>
       </c>
       <c r="C4">
-        <v>138600.7956895865</v>
+        <v>-138600.7956895865</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>302121295.2049721</v>
+        <v>-302121295.2049721</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>155778991.6496828</v>
+        <v>-155778991.6496828</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>129057.0472104277</v>
+        <v>-129057.0472104277</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5120849.279560064</v>
+        <v>-5120849.279560064</v>
       </c>
       <c r="C4">
-        <v>374983.7126610662</v>
+        <v>-374983.7126610662</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>269065329.5268282</v>
+        <v>-269065329.5268282</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>127113829.054203</v>
+        <v>-127113829.054203</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>297745.1053383757</v>
+        <v>-297745.1053383757</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7945820.55531833</v>
+        <v>-7945820.55531833</v>
       </c>
       <c r="C4">
-        <v>865117.9260625698</v>
+        <v>-865117.9260625698</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>262992574.8749159</v>
+        <v>-262992574.8749159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>109956446.0569336</v>
+        <v>-109956446.0569336</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>542042.1776614024</v>
+        <v>-542042.1776614024</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7489,16 +7489,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10933419.50148275</v>
+        <v>-10933419.50148275</v>
       </c>
       <c r="C4">
-        <v>1574939.087727237</v>
+        <v>-1574939.087727237</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>275707490.5538035</v>
+        <v>-275707490.5538035</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101571418.4125492</v>
+        <v>-101571418.4125492</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>761890.6391043025</v>
+        <v>-761890.6391043025</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7584,16 +7584,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13723453.36056322</v>
+        <v>-13723453.36056322</v>
       </c>
       <c r="C4">
-        <v>2213723.207437214</v>
+        <v>-2213723.207437214</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>297752776.9127684</v>
+        <v>-297752776.9127684</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>99511917.64322159</v>
+        <v>-99511917.64322159</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>905458.7548498166</v>
+        <v>-905458.7548498166</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>16190036.69022097</v>
+        <v>-16190036.69022097</v>
       </c>
       <c r="C4">
-        <v>2630869.78118632</v>
+        <v>-2630869.78118632</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>323357143.7502406</v>
+        <v>-323357143.7502406</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101777907.029754</v>
+        <v>-101777907.029754</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>937499.4529685908</v>
+        <v>-937499.4529685908</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>16779715.97473448</v>
+        <v>-16779715.97473448</v>
       </c>
       <c r="C4">
-        <v>2723966.130409623</v>
+        <v>-2723966.130409623</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>337486084.7735053</v>
+        <v>-337486084.7735053</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>106805930.022688</v>
+        <v>-106805930.022688</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>715881.3823066468</v>
+        <v>-715881.3823066468</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12708992.28362611</v>
+        <v>-12708992.28362611</v>
       </c>
       <c r="C4">
-        <v>2080040.29508427</v>
+        <v>-2080040.29508427</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>314154046.1683999</v>
+        <v>-314154046.1683999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>113389264.2235971</v>
+        <v>-113389264.2235971</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>326922.1563440866</v>
+        <v>-326922.1563440866</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7964,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5706102.870695112</v>
+        <v>-5706102.870695112</v>
       </c>
       <c r="C4">
-        <v>949893.760835727</v>
+        <v>-949893.760835727</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>266433430.0468065</v>
+        <v>-266433430.0468065</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>120599622.5170939</v>
+        <v>-120599622.5170939</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.551001436666004E-12</v>
+        <v>-5.551001436666004E-12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8059,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.88241752310029E-09</v>
+        <v>-3.88241752310029E-09</v>
       </c>
       <c r="C4">
-        <v>1.612879864137899E-11</v>
+        <v>-1.612879864137899E-11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>313.2677901910699</v>
+        <v>-313.2677901910699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>174.3032420984777</v>
+        <v>-174.3032420984777</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>92220.87966078431</v>
+        <v>-92220.87966078431</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1559761.757223537</v>
+        <v>-1559761.757223537</v>
       </c>
       <c r="C4">
-        <v>267953.8125778239</v>
+        <v>-267953.8125778239</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>243211186.9918133</v>
+        <v>-243211186.9918133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>127728313.7351084</v>
+        <v>-127728313.7351084</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>88371.5019261687</v>
+        <v>-88371.5019261687</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8249,16 +8249,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1512091.594234109</v>
+        <v>-1512091.594234109</v>
       </c>
       <c r="C4">
-        <v>256769.1931745343</v>
+        <v>-256769.1931745343</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>254463037.799456</v>
+        <v>-254463037.799456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>134234900.0751244</v>
+        <v>-134234900.0751244</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>203512.1840784329</v>
+        <v>-203512.1840784329</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3495410.454933774</v>
+        <v>-3495410.454933774</v>
       </c>
       <c r="C4">
-        <v>591317.9946931795</v>
+        <v>-591317.9946931795</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>281583644.941337</v>
+        <v>-281583644.941337</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>139695807.1899707</v>
+        <v>-139695807.1899707</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>374712.923501771</v>
+        <v>-374712.923501771</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6437418.046862648</v>
+        <v>-6437418.046862648</v>
       </c>
       <c r="C4">
-        <v>1088752.968349512</v>
+        <v>-1088752.968349512</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>314573133.6430456</v>
+        <v>-314573133.6430456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>143762267.6696263</v>
+        <v>-143762267.6696263</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>433230.0327380623</v>
+        <v>-433230.0327380623</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7441137.704455795</v>
+        <v>-7441137.704455795</v>
       </c>
       <c r="C4">
-        <v>1258778.266075715</v>
+        <v>-1258778.266075715</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>327617755.2358934</v>
+        <v>-327617755.2358934</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>146143918.0511018</v>
+        <v>-146143918.0511018</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>297342.2642757843</v>
+        <v>-297342.2642757843</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5082940.0902862</v>
+        <v>-5082940.0902862</v>
       </c>
       <c r="C4">
-        <v>863947.4449417944</v>
+        <v>-863947.4449417944</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>307933154.5728284</v>
+        <v>-307933154.5728284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>146626785.4730847</v>
+        <v>-146626785.4730847</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>136512.5618844992</v>
+        <v>-136512.5618844992</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8724,16 +8724,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2296968.574442198</v>
+        <v>-2296968.574442198</v>
       </c>
       <c r="C4">
-        <v>396646.1993885364</v>
+        <v>-396646.1993885364</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>280937728.1153567</v>
+        <v>-280937728.1153567</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>145120195.1689925</v>
+        <v>-145120195.1689925</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>99731.84701071725</v>
+        <v>-99731.84701071725</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1646383.958172038</v>
+        <v>-1646383.958172038</v>
       </c>
       <c r="C4">
-        <v>289777.4206909215</v>
+        <v>-289777.4206909215</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>269163535.3669642</v>
+        <v>-269163535.3669642</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>141714285.9510762</v>
+        <v>-141714285.9510762</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>215332.0374616801</v>
+        <v>-215332.0374616801</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8914,16 +8914,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3579113.204448697</v>
+        <v>-3579113.204448697</v>
       </c>
       <c r="C4">
-        <v>625661.3537003999</v>
+        <v>-625661.3537003999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>277138429.6920583</v>
+        <v>-277138429.6920583</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>136722302.1641746</v>
+        <v>-136722302.1641746</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>409407.5059980877</v>
+        <v>-409407.5059980877</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6959313.908173212</v>
+        <v>-6959313.908173212</v>
       </c>
       <c r="C4">
-        <v>1189560.352641218</v>
+        <v>-1189560.352641218</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>295725174.5300348</v>
+        <v>-295725174.5300348</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>130682138.3103558</v>
+        <v>-130682138.3103558</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.500214794786619E-10</v>
+        <v>-3.500214794786619E-10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.788469574754188E-07</v>
+        <v>-1.788469574754188E-07</v>
       </c>
       <c r="C4">
-        <v>1.017010358775842E-09</v>
+        <v>-1.017010358775842E-09</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>894.6044944780998</v>
+        <v>-894.6044944780998</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>497.7609203705427</v>
+        <v>-497.7609203705427</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>520491.1056808388</v>
+        <v>-520491.1056808388</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9339851.354539512</v>
+        <v>-9339851.354539512</v>
       </c>
       <c r="C4">
-        <v>1512321.035030579</v>
+        <v>-1512321.035030579</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>304373447.7422469</v>
+        <v>-304373447.7422469</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>124301870.3823897</v>
+        <v>-124301870.3823897</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>468629.5241297301</v>
+        <v>-468629.5241297301</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9294,16 +9294,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9244937.362709431</v>
+        <v>-9244937.362709431</v>
       </c>
       <c r="C4">
-        <v>1361633.809382214</v>
+        <v>-1361633.809382214</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>291731537.271112</v>
+        <v>-291731537.271112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>118353260.575673</v>
+        <v>-118353260.575673</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>398535.6821422723</v>
+        <v>-398535.6821422723</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9389,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8550246.860331327</v>
+        <v>-8550246.860331327</v>
       </c>
       <c r="C4">
-        <v>1157971.555586194</v>
+        <v>-1157971.555586194</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>276296093.7928859</v>
+        <v>-276296093.7928859</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>113538742.8587283</v>
+        <v>-113538742.8587283</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>418721.2851401943</v>
+        <v>-418721.2851401943</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8888836.722408021</v>
+        <v>-8888836.722408021</v>
       </c>
       <c r="C4">
-        <v>1216622.148622942</v>
+        <v>-1216622.148622942</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>273569204.6239275</v>
+        <v>-273569204.6239275</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>110370498.7294859</v>
+        <v>-110370498.7294859</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>513085.934035907</v>
+        <v>-513085.934035907</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10195630.02525446</v>
+        <v>-10195630.02525446</v>
       </c>
       <c r="C4">
-        <v>1490804.823275158</v>
+        <v>-1490804.823275158</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>283130827.7820931</v>
+        <v>-283130827.7820931</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>109096809.2884785</v>
+        <v>-109096809.2884785</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>589163.6393422161</v>
+        <v>-589163.6393422161</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9674,16 +9674,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11270941.53811115</v>
+        <v>-11270941.53811115</v>
       </c>
       <c r="C4">
-        <v>1711853.584293062</v>
+        <v>-1711853.584293062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>293913855.6408181</v>
+        <v>-293913855.6408181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>109691897.7715441</v>
+        <v>-109691897.7715441</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>624545.980029023</v>
+        <v>-624545.980029023</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9769,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11772436.92565127</v>
+        <v>-11772436.92565127</v>
       </c>
       <c r="C4">
-        <v>1814659.295102054</v>
+        <v>-1814659.295102054</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>302412737.5291326</v>
+        <v>-302412737.5291326</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>111901460.599196</v>
+        <v>-111901460.599196</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>651588.7073482028</v>
+        <v>-651588.7073482028</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9864,16 +9864,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11952281.38681617</v>
+        <v>-11952281.38681617</v>
       </c>
       <c r="C4">
-        <v>1893233.712461012</v>
+        <v>-1893233.712461012</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>310527782.7462338</v>
+        <v>-310527782.7462338</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>115319837.6407745</v>
+        <v>-115319837.6407745</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>688236.8131251221</v>
+        <v>-688236.8131251221</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12033287.44165001</v>
+        <v>-12033287.44165001</v>
       </c>
       <c r="C4">
-        <v>1999717.186732801</v>
+        <v>-1999717.186732801</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>319471607.2718499</v>
+        <v>-319471607.2718499</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>119472463.8017876</v>
+        <v>-119472463.8017876</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>713350.7708538725</v>
+        <v>-713350.7708538725</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10054,16 +10054,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11980742.71905486</v>
+        <v>-11980742.71905486</v>
       </c>
       <c r="C4">
-        <v>2072687.43758152</v>
+        <v>-2072687.43758152</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>327626687.6472914</v>
+        <v>-327626687.6472914</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>123885571.7089517</v>
+        <v>-123885571.7089517</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-330656904.461571</v>
+        <v>-330656904.4615711</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-113500438.1795544</v>
+        <v>-113500438.1795545</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-275895586.6381068</v>
+        <v>-275895586.6381067</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-612485454.1171471</v>
+        <v>-612485454.1171472</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2973904613.870537</v>
+        <v>-2973904613.870538</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-283130827.7820931</v>
+        <v>-283130827.7820932</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
@@ -122,16 +122,16 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Nd</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dy</t>
+    <t>Dysprosium</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Copper ores and concentrates</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Raw silicon</t>
   </si>
   <si>
     <t>Region</t>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-330656904.4615711</v>
+        <v>-330656904.461571</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-325918588.7172923</v>
+        <v>-325918588.7172922</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-5338.389427300424</v>
+        <v>-5338.389427300423</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-304931.6515087997</v>
+        <v>-304931.6515087996</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-17769537.4919538</v>
+        <v>-17769537.49195379</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-75177369.64464912</v>
+        <v>-75177369.6446491</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-113500438.1795545</v>
+        <v>-113500438.1795544</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275895586.6381067</v>
+        <v>-275895586.6381068</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-612485454.1171472</v>
+        <v>-612485454.1171471</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2841573106.88988</v>
+        <v>-2841573106.889879</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2936408994.475012</v>
+        <v>-2936408994.475011</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8340,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2973904613.870538</v>
+        <v>-2973904613.870537</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10056,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-604920949.8416866</v>
+        <v>-604920949.8416867</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10628,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-302121295.2049722</v>
+        <v>-302121295.2049721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-283130827.7820932</v>
+        <v>-283130827.7820931</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
@@ -116,10 +116,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="13">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>EU27+UK</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Onshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Offshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Silicon layer in PV panel</t>
+  </si>
+  <si>
+    <t>Refinery of Cu in wires of WT and PV</t>
   </si>
   <si>
     <t>Neodymium</t>
@@ -132,27 +153,6 @@
   </si>
   <si>
     <t>Raw silicon</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Generator Onshore</t>
-  </si>
-  <si>
-    <t>Generator Offshore</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -517,55 +517,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -660,55 +655,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -803,55 +793,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -904,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-330656904.461571</v>
+        <v>-330656904.4615711</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -946,55 +931,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1047,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-325918588.7172922</v>
+        <v>-325918588.7172923</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1089,55 +1069,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1190,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-5338.389427300423</v>
+        <v>-5338.389427300424</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1232,55 +1207,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1375,55 +1345,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,55 +1483,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1661,55 +1621,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1804,55 +1759,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1947,55 +1897,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2048,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-304931.6515087996</v>
+        <v>-304931.6515087997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2090,55 +2035,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2233,55 +2173,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2376,55 +2311,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2519,55 +2449,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2662,55 +2587,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2805,55 +2725,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2948,55 +2863,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3091,55 +3001,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3234,55 +3139,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3335,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-17769537.49195379</v>
+        <v>-17769537.4919538</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3377,55 +3277,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3520,55 +3415,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3663,55 +3553,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3764,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-75177369.6446491</v>
+        <v>-75177369.64464912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3806,55 +3691,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3949,55 +3829,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4092,55 +3967,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4235,55 +4105,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4336,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-113500438.1795544</v>
+        <v>-113500438.1795545</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4378,55 +4243,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4521,55 +4381,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4664,55 +4519,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4807,55 +4657,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4950,55 +4795,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5093,55 +4933,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5236,55 +5071,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5379,55 +5209,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5480,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275895586.6381068</v>
+        <v>-275895586.6381067</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5522,55 +5347,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5665,55 +5485,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5808,55 +5623,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5951,55 +5761,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6094,55 +5899,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6237,55 +6037,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6380,55 +6175,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6523,55 +6313,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6624,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-612485454.1171471</v>
+        <v>-612485454.1171472</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6666,55 +6451,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6809,55 +6589,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6952,55 +6727,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7095,55 +6865,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7238,55 +7003,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7381,55 +7141,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7524,55 +7279,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7667,55 +7417,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7810,55 +7555,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7953,55 +7693,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8054,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2841573106.889879</v>
+        <v>-2841573106.88988</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8096,55 +7831,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8197,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2936408994.475011</v>
+        <v>-2936408994.475012</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8239,55 +7969,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8340,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2973904613.870537</v>
+        <v>-2973904613.870538</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8382,55 +8107,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8525,55 +8245,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8668,55 +8383,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8811,55 +8521,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8954,55 +8659,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9097,55 +8797,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9240,55 +8935,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9383,55 +9073,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9526,55 +9211,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9669,55 +9349,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9812,55 +9487,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9955,55 +9625,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10056,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-604920949.8416867</v>
+        <v>-604920949.8416866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10098,55 +9763,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10241,55 +9901,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10384,55 +10039,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10527,55 +10177,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10628,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-302121295.2049721</v>
+        <v>-302121295.2049722</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10670,55 +10315,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10813,55 +10453,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10956,55 +10591,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11099,55 +10729,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11242,55 +10867,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11385,55 +11005,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11528,55 +11143,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11671,55 +11281,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11814,55 +11419,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11957,55 +11557,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12100,55 +11695,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12243,55 +11833,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12386,55 +11971,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12529,55 +12109,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12672,55 +12247,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12815,55 +12385,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12958,55 +12523,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13101,55 +12661,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13244,55 +12799,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13387,55 +12937,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13530,55 +13075,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13673,55 +13213,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13816,55 +13351,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13959,55 +13489,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14102,55 +13627,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14203,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-283130827.7820931</v>
+        <v>-283130827.7820932</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14245,55 +13765,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14388,55 +13903,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14531,55 +14041,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14674,55 +14179,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14817,55 +14317,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.125315458652596E-08</v>
+        <v>-1.125315458652596E-14</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.826765999281811E-06</v>
+        <v>-4.826765999281814E-12</v>
       </c>
       <c r="E7">
-        <v>-3.26967784961336E-08</v>
+        <v>-3.26967784961336E-14</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2287.18665932842</v>
+        <v>-0.00228718665932842</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1272.598257205794</v>
+        <v>-0.001272598257205793</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-683638.8549154364</v>
+        <v>-0.6836388549154357</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11449376.39635996</v>
+        <v>-11.44937639636004</v>
       </c>
       <c r="E7">
-        <v>-1986357.517676394</v>
+        <v>-1.986357517676392</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-330656904.4615711</v>
+        <v>-330.6569044615719</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128136086.5481714</v>
+        <v>-128.1360865481715</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-590953.1549019583</v>
+        <v>-0.5909531549019549</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10188886.11060164</v>
+        <v>-10.18888611060167</v>
       </c>
       <c r="E7">
-        <v>-1717053.139086555</v>
+        <v>-1.717053139086544</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-325918588.7172923</v>
+        <v>-325.9185887172925</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131882275.5988688</v>
+        <v>-131.8822755988689</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.436678692641782E-07</v>
+        <v>-2.436678692641781E-13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.82422342945994E-05</v>
+        <v>-8.824223429459946E-11</v>
       </c>
       <c r="E7">
-        <v>-7.079929709217004E-07</v>
+        <v>-7.079929709217003E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-5338.389427300424</v>
+        <v>-0.005338389427300422</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2970.297299528549</v>
+        <v>-0.002970297299528548</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.847391139317813E-06</v>
+        <v>-3.847391139317813E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.001188200410868584</v>
+        <v>-1.188200410868584E-09</v>
       </c>
       <c r="E7">
-        <v>-1.117884722039506E-05</v>
+        <v>-1.117884722039506E-11</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-11610.79187055819</v>
+        <v>-0.01161079187055819</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6460.27838704948</v>
+        <v>-0.00646027838704948</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.677544931724572E-05</v>
+        <v>-4.677544931724571E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.01249070194590728</v>
+        <v>-1.249070194590729E-08</v>
       </c>
       <c r="E7">
-        <v>-0.0001359091349561973</v>
+        <v>-1.359091349561972E-10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-23940.03691553224</v>
+        <v>-0.02394003691553225</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-13320.26479415017</v>
+        <v>-0.01332026479415018</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0004565785838136936</v>
+        <v>-4.565785838136935E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.1070179889364461</v>
+        <v>-1.070179889364461E-07</v>
       </c>
       <c r="E7">
-        <v>-0.001326619012139905</v>
+        <v>-1.326619012139905E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-47395.76445385617</v>
+        <v>-0.04739576445385618</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-26370.71923032272</v>
+        <v>-0.02637071923032273</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.003698768777510809</v>
+        <v>-3.698768777510808E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.7721477126209654</v>
+        <v>-7.721477126209657E-07</v>
       </c>
       <c r="E7">
-        <v>-0.01074701520331832</v>
+        <v>-1.074701520331832E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-90836.33074454608</v>
+        <v>-0.0908363307445461</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-50538.44243534981</v>
+        <v>-0.05053844243534981</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02553847793218492</v>
+        <v>-2.553847793218492E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.812432622130673</v>
+        <v>-4.812432622130677E-06</v>
       </c>
       <c r="E7">
-        <v>-0.07420372213466882</v>
+        <v>-7.420372213466882E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-169002.470623507</v>
+        <v>-0.1690024706235069</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94013.59367901544</v>
+        <v>-0.09401359367901543</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1535670020381944</v>
+        <v>-1.535670020381943E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-26.43710292259309</v>
+        <v>-2.64371029225931E-05</v>
       </c>
       <c r="E7">
-        <v>-0.4461989934778147</v>
+        <v>-4.461989934778145E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-304931.6515087997</v>
+        <v>-0.3049316515087998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-169555.2455245817</v>
+        <v>-0.1695552455245817</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8185436361408228</v>
+        <v>-8.185436361408226E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-130.1119661307391</v>
+        <v>-0.0001301119661307392</v>
       </c>
       <c r="E7">
-        <v>-2.378332204941182</v>
+        <v>-2.378332204941181E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-532669.8582553903</v>
+        <v>-0.5326698582553903</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-295838.3392183481</v>
+        <v>-0.2958383392183481</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.924415832476695</v>
+        <v>-3.924415832476693E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-581.3717752578971</v>
+        <v>-0.0005813717752578973</v>
       </c>
       <c r="E7">
-        <v>-11.40264751671056</v>
+        <v>-1.140264751671055E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-900785.5547957035</v>
+        <v>-0.9007855547957033</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-498779.415279917</v>
+        <v>-0.498779415279917</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-17.13118674401122</v>
+        <v>-1.713118674401122E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2384.445483411101</v>
+        <v>-0.0023844454834111</v>
       </c>
       <c r="E7">
-        <v>-49.77578633954927</v>
+        <v>-4.977578633954926E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1478631.857240594</v>
+        <v>-1.478631857240594</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-812773.5780484368</v>
+        <v>-0.8127735780484368</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-68.78530515464971</v>
+        <v>-6.878530515464968E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9057.708517928275</v>
+        <v>-0.009057708517928273</v>
       </c>
       <c r="E7">
-        <v>-199.860214230369</v>
+        <v>-0.0001998602142303689</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2371590.561877393</v>
+        <v>-2.371590561877394</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1281744.148501395</v>
+        <v>-1.281744148501395</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-256.1656006837658</v>
+        <v>-0.0002561656006837659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-32089.0705457297</v>
+        <v>-0.03208907054572969</v>
       </c>
       <c r="E7">
-        <v>-744.3059490105032</v>
+        <v>-0.0007443059490105032</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3763490.537108452</v>
+        <v>-3.763490537108451</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1959875.808837294</v>
+        <v>-1.959875808837294</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-890.3516653061916</v>
+        <v>-0.0008903516653061917</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-106439.9258964056</v>
+        <v>-0.1064399258964056</v>
       </c>
       <c r="E7">
-        <v>-2586.975141978164</v>
+        <v>-0.002586975141978165</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6034042.340366801</v>
+        <v>-6.034042340366801</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2911859.670496133</v>
+        <v>-2.911859670496133</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2895.869631717003</v>
+        <v>-0.002895869631717002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-329824.0184229118</v>
+        <v>-0.3298240184229118</v>
       </c>
       <c r="E7">
-        <v>-8414.139090855755</v>
+        <v>-0.008414139090855755</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-10055134.96200703</v>
+        <v>-10.05513496200703</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4212395.223567942</v>
+        <v>-4.212395223567942</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-8770.005613287902</v>
+        <v>-0.008770005613287904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-938981.9517928477</v>
+        <v>-0.9389819517928479</v>
       </c>
       <c r="E7">
-        <v>-25481.82633968843</v>
+        <v>-0.02548182633968843</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-17769537.4919538</v>
+        <v>-17.7695374919538</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5944607.504760655</v>
+        <v>-5.944607504760657</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-24174.11099431143</v>
+        <v>-0.02417411099431142</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2338871.384210942</v>
+        <v>-2.338871384210943</v>
       </c>
       <c r="E7">
-        <v>-70239.46453809123</v>
+        <v>-0.07023946453809121</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-32437700.96325228</v>
+        <v>-32.43770096325228</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-8197041.15514928</v>
+        <v>-8.197041155149284</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-57106.39488070462</v>
+        <v>-0.05710639488070463</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4593929.056879821</v>
+        <v>-4.593929056879821</v>
       </c>
       <c r="E7">
-        <v>-165926.3746685605</v>
+        <v>-0.1659263746685605</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-54885698.11172912</v>
+        <v>-54.88569811172911</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-11059115.42091583</v>
+        <v>-11.05911542091583</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-102211.304780186</v>
+        <v>-0.102211304780186</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6343796.233558833</v>
+        <v>-6.343796233558829</v>
       </c>
       <c r="E7">
-        <v>-296981.6478127907</v>
+        <v>-0.2969816478127908</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-75177369.64464912</v>
+        <v>-75.17736964464909</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-14614897.31979977</v>
+        <v>-14.61489731979977</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-115734.9113991057</v>
+        <v>-0.1157349113991057</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6800599.950036286</v>
+        <v>-6.800599950036283</v>
       </c>
       <c r="E7">
-        <v>-336275.3735576685</v>
+        <v>-0.3362753735576685</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-86613045.91610509</v>
+        <v>-86.61304591610505</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-18935064.92801956</v>
+        <v>-18.93506492801956</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.006410968090021747</v>
+        <v>-6.410968090021743E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.003567084003436689</v>
+        <v>-3.567084003436687E-09</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-77234.12247590261</v>
+        <v>-0.0772341224759026</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7236592.564125663</v>
+        <v>-7.236592564125663</v>
       </c>
       <c r="E7">
-        <v>-224408.8069279288</v>
+        <v>-0.2244088069279288</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-98097022.15484625</v>
+        <v>-98.09702215484624</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-24067888.76780985</v>
+        <v>-24.06788876780985</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-54888.85053239244</v>
+        <v>-0.05488885053239242</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7950854.944504507</v>
+        <v>-7.950854944504504</v>
       </c>
       <c r="E7">
-        <v>-159483.1541649576</v>
+        <v>-0.1594831541649576</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-113500438.1795545</v>
+        <v>-113.5004381795544</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-30030482.27256715</v>
+        <v>-30.03048227256713</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-88373.01635433348</v>
+        <v>-0.08837301635433348</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8703553.930969652</v>
+        <v>-8.703553930969653</v>
       </c>
       <c r="E7">
-        <v>-256773.5934448649</v>
+        <v>-0.2567735934448649</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-131990412.4546964</v>
+        <v>-131.9904124546964</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36801608.11742842</v>
+        <v>-36.80160811742844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-137868.7661098198</v>
+        <v>-0.1378687661098198</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9518132.518327044</v>
+        <v>-9.518132518327045</v>
       </c>
       <c r="E7">
-        <v>-400586.7396885803</v>
+        <v>-0.4005867396885803</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-152660909.5015236</v>
+        <v>-152.6609095015236</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-44318208.93913035</v>
+        <v>-44.31820893913036</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-194889.9529820448</v>
+        <v>-0.1948899529820448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10140622.13974321</v>
+        <v>-10.14062213974321</v>
       </c>
       <c r="E7">
-        <v>-566265.5369015987</v>
+        <v>-0.5662655369015986</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-173265318.8950385</v>
+        <v>-173.2653188950385</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-52478965.99601345</v>
+        <v>-52.47896599601344</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-269727.8705325979</v>
+        <v>-0.2697278705325979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10834464.54192657</v>
+        <v>-10.83446454192657</v>
       </c>
       <c r="E7">
-        <v>-783712.0133049557</v>
+        <v>-0.7837120133049557</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-195757035.9189584</v>
+        <v>-195.7570359189584</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-61159146.00124408</v>
+        <v>-61.15914600124409</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-323085.5423042857</v>
+        <v>-0.3230855423042858</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10935112.80902294</v>
+        <v>-10.93511280902295</v>
       </c>
       <c r="E7">
-        <v>-938746.2271846097</v>
+        <v>-0.9387462271846098</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-214109117.8730785</v>
+        <v>-214.1091178730786</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-70241400.26060626</v>
+        <v>-70.24140026060627</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-362634.6164198295</v>
+        <v>-0.3626346164198296</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10514467.46881145</v>
+        <v>-10.51446746881146</v>
       </c>
       <c r="E7">
-        <v>-1053658.655174486</v>
+        <v>-1.053658655174486</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-228926940.5796344</v>
+        <v>-228.9269405796345</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-79666353.69198331</v>
+        <v>-79.66635369198332</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-523112.7278647045</v>
+        <v>-0.5231127278647046</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10525095.35833599</v>
+        <v>-10.52509535833599</v>
       </c>
       <c r="E7">
-        <v>-1519938.330179892</v>
+        <v>-1.519938330179892</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250571829.0945449</v>
+        <v>-250.5718290945449</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89503930.95206773</v>
+        <v>-89.50393095206769</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-840494.247984493</v>
+        <v>-0.8404942479844931</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10347508.30605527</v>
+        <v>-10.34750830605527</v>
       </c>
       <c r="E7">
-        <v>-2442111.146907059</v>
+        <v>-2.44211114690706</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275895586.6381067</v>
+        <v>-275.8955866381067</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100040740.1086992</v>
+        <v>-100.0407401086992</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.3925887260554993</v>
+        <v>-3.925887260554991E-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2184376750871349</v>
+        <v>-2.184376750871348E-07</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1178331.933150186</v>
+        <v>-1.178331933150186</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10275490.51292129</v>
+        <v>-10.27549051292128</v>
       </c>
       <c r="E7">
-        <v>-3423720.692441557</v>
+        <v>-3.423720692441556</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-304810913.1143236</v>
+        <v>-304.8109131143236</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111870307.2953822</v>
+        <v>-111.8703072953822</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1517614.116242593</v>
+        <v>-1.517614116242592</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10173129.08481809</v>
+        <v>-10.17312908481809</v>
       </c>
       <c r="E7">
-        <v>-4409527.32141472</v>
+        <v>-4.409527321414718</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337609584.8917047</v>
+        <v>-337.6095848917046</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-125964698.6047302</v>
+        <v>-125.9646986047302</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1570747.731920956</v>
+        <v>-1.570747731920956</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9725185.197679555</v>
+        <v>-9.725185197679552</v>
       </c>
       <c r="E7">
-        <v>-4563910.525624348</v>
+        <v>-4.563910525624348</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-367494288.4038106</v>
+        <v>-367.4942884038103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-143701044.8261951</v>
+        <v>-143.701044826195</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1378568.634792155</v>
+        <v>-1.378568634792155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9142810.477635879</v>
+        <v>-9.142810477635877</v>
       </c>
       <c r="E7">
-        <v>-4005521.558149297</v>
+        <v>-4.005521558149297</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-400123061.9496393</v>
+        <v>-400.1230619496395</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-166817268.6545134</v>
+        <v>-166.8172686545135</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1350678.128574459</v>
+        <v>-1.350678128574459</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8310779.826103078</v>
+        <v>-8.310779826103071</v>
       </c>
       <c r="E7">
-        <v>-3924483.863613675</v>
+        <v>-3.924483863613674</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-448109199.4540626</v>
+        <v>-448.1091994540625</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-197281397.656517</v>
+        <v>-197.281397656517</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1241824.67239143</v>
+        <v>-1.24182467239143</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8181923.828575392</v>
+        <v>-8.181923828575385</v>
       </c>
       <c r="E7">
-        <v>-3608203.009388438</v>
+        <v>-3.608203009388438</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-516053984.6992599</v>
+        <v>-516.0539846992596</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-237077691.0657949</v>
+        <v>-237.0776910657948</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1077324.578529103</v>
+        <v>-1.077324578529103</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9413069.237654163</v>
+        <v>-9.413069237654154</v>
       </c>
       <c r="E7">
-        <v>-3130237.200756445</v>
+        <v>-3.130237200756447</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-612485454.1171472</v>
+        <v>-612.4854541171474</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-287934944.8339855</v>
+        <v>-287.9349448339857</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-917046.5775336452</v>
+        <v>-0.9170465775336449</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12659630.8941817</v>
+        <v>-12.65963089418169</v>
       </c>
       <c r="E7">
-        <v>-2664538.959782629</v>
+        <v>-2.664538959782628</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-745781122.8981508</v>
+        <v>-745.7811228981506</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-351038364.5002775</v>
+        <v>-351.0383645002775</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1018249.687764483</v>
+        <v>-1.018249687764483</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-19270990.892695</v>
+        <v>-19.270990892695</v>
       </c>
       <c r="E7">
-        <v>-2958591.232227155</v>
+        <v>-2.958591232227154</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-932731838.2571456</v>
+        <v>-932.7318382571458</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-426768186.2659416</v>
+        <v>-426.7681862659417</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1576310.90232483</v>
+        <v>-1.57631090232483</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-29226060.62225529</v>
+        <v>-29.2260606222553</v>
       </c>
       <c r="E7">
-        <v>-4580074.681997843</v>
+        <v>-4.580074681997843</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1176784777.735983</v>
+        <v>-1176.784777735983</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-514495635.2233338</v>
+        <v>-514.4956352233339</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4.323971113142942</v>
+        <v>-4.32397111314294E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.40587193266816</v>
+        <v>-2.405871932668159E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2244920.136286289</v>
+        <v>-2.244920136286288</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-40860510.59042751</v>
+        <v>-40.86051059042752</v>
       </c>
       <c r="E7">
-        <v>-6522762.65053275</v>
+        <v>-6.522762650532746</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1454186740.864925</v>
+        <v>-1454.186740864925</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-612449257.4833214</v>
+        <v>-612.4492574833214</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3131882.064991609</v>
+        <v>-3.131882064991609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-56950590.37464238</v>
+        <v>-56.95059037464235</v>
       </c>
       <c r="E7">
-        <v>-9099888.690559391</v>
+        <v>-9.099888690559389</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1782526286.094585</v>
+        <v>-1782.526286094585</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-717655732.5318811</v>
+        <v>-717.6557325318815</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4449042.303618602</v>
+        <v>-4.449042303618601</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80623568.95095938</v>
+        <v>-80.62356895095937</v>
       </c>
       <c r="E7">
-        <v>-12926984.12723522</v>
+        <v>-12.92698412723522</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2182368275.291069</v>
+        <v>-2182.368275291068</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-825966206.5631379</v>
+        <v>-825.9662065631376</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5357051.081553567</v>
+        <v>-5.357051081553568</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-96657034.97783314</v>
+        <v>-96.65703497783315</v>
       </c>
       <c r="E7">
-        <v>-15565263.16769494</v>
+        <v>-15.56526316769494</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2512641323.992754</v>
+        <v>-2512.641323992753</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-932195459.4686735</v>
+        <v>-932.1954594686727</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5450213.259936684</v>
+        <v>-5.450213259936686</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-98072469.61588129</v>
+        <v>-98.07246961588129</v>
       </c>
       <c r="E7">
-        <v>-15835951.98542942</v>
+        <v>-15.83595198542942</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2701774220.987757</v>
+        <v>-2701.774220987757</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1030409558.194976</v>
+        <v>-1030.409558194976</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5378224.261476698</v>
+        <v>-5.378224261476699</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-96791243.69260682</v>
+        <v>-96.79124369260687</v>
       </c>
       <c r="E7">
-        <v>-15626783.23024116</v>
+        <v>-15.62678323024117</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2841573106.88988</v>
+        <v>-2841.573106889879</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1114382293.110486</v>
+        <v>-1114.382293110486</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5252888.748442777</v>
+        <v>-5.252888748442777</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-94492797.6325893</v>
+        <v>-94.49279763258936</v>
       </c>
       <c r="E7">
-        <v>-15262612.67914288</v>
+        <v>-15.26261267914287</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2936408994.475012</v>
+        <v>-2936.408994475013</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1178199197.471232</v>
+        <v>-1178.199197471233</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5064617.613802466</v>
+        <v>-5.064617613802469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-90727541.01441841</v>
+        <v>-90.72754101441845</v>
       </c>
       <c r="E7">
-        <v>-14715578.55291477</v>
+        <v>-14.71557855291478</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2973904613.870538</v>
+        <v>-2973.904613870538</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1216933802.862411</v>
+        <v>-1216.933802862411</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4896880.658589261</v>
+        <v>-4.896880658589263</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-87302557.22713925</v>
+        <v>-87.30255722713926</v>
       </c>
       <c r="E7">
-        <v>-14228207.83139381</v>
+        <v>-14.22820783139382</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2963361024.074817</v>
+        <v>-2963.361024074818</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1227276686.947677</v>
+        <v>-1227.276686947678</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4734075.83434361</v>
+        <v>-4.734075834343612</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-84076115.15382193</v>
+        <v>-84.07611515382192</v>
       </c>
       <c r="E7">
-        <v>-13755167.73978823</v>
+        <v>-13.75516773978824</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2901130120.334378</v>
+        <v>-2901.130120334377</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1207985504.799038</v>
+        <v>-1207.985504799037</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-24.11679058346222</v>
+        <v>-2.411679058346222E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-13.4186626257578</v>
+        <v>-1.34186626257578E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4321997.78345099</v>
+        <v>-4.32199778345099</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-76370893.90710761</v>
+        <v>-76.37089390710761</v>
       </c>
       <c r="E7">
-        <v>-12557847.9438541</v>
+        <v>-12.5578479438541</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2748606027.993998</v>
+        <v>-2748.606027993997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1160054812.027021</v>
+        <v>-1160.054812027021</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3377176.817295955</v>
+        <v>-3.377176817295955</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-59014425.77824229</v>
+        <v>-59.01442577824226</v>
       </c>
       <c r="E7">
-        <v>-9812608.676825499</v>
+        <v>-9.812608676825498</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2466612877.128782</v>
+        <v>-2466.612877128782</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1086572964.613786</v>
+        <v>-1086.572964613787</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1913095.39848473</v>
+        <v>-1.913095398484729</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-32040049.24411725</v>
+        <v>-32.04004924411724</v>
       </c>
       <c r="E7">
-        <v>-5558624.117820686</v>
+        <v>-5.55862411782068</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2064306275.015632</v>
+        <v>-2064.306275015633</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-992316718.5680959</v>
+        <v>-992.3167185680963</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-933218.4291540054</v>
+        <v>-0.9332184291540008</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13231594.00656222</v>
+        <v>-13.23159400656228</v>
       </c>
       <c r="E7">
-        <v>-2711527.335018883</v>
+        <v>-2.71152733501887</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1706786307.568264</v>
+        <v>-1706.786307568265</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-883197468.7500741</v>
+        <v>-883.1974687500744</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-841949.1201046124</v>
+        <v>-0.8419491201046101</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10256643.06037544</v>
+        <v>-10.25664306037548</v>
       </c>
       <c r="E7">
-        <v>-2446338.373244882</v>
+        <v>-2.446338373244875</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1471600765.552769</v>
+        <v>-1471.600765552768</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-765685553.1688989</v>
+        <v>-765.6855531688988</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-802862.9856002571</v>
+        <v>-0.8028629856002566</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9189335.373054815</v>
+        <v>-9.18933537305481</v>
       </c>
       <c r="E7">
-        <v>-2332771.046649262</v>
+        <v>-2.332771046649261</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1248265042.117021</v>
+        <v>-1248.265042117021</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-646294381.4950713</v>
+        <v>-646.2943814950713</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-612484.2954864562</v>
+        <v>-0.6124842954864571</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6812541.576623338</v>
+        <v>-6.81254157662331</v>
       </c>
       <c r="E7">
-        <v>-1779613.279805085</v>
+        <v>-1.779613279805088</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1019284240.727897</v>
+        <v>-1019.284240727897</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-531134142.879609</v>
+        <v>-531.134142879609</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-293324.5521292674</v>
+        <v>-0.2933245521292687</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3095262.362053989</v>
+        <v>-3.095262362053966</v>
       </c>
       <c r="E7">
-        <v>-852273.7188674028</v>
+        <v>-0.8522737188674064</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-794490707.6823961</v>
+        <v>-794.4907076823962</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-425498500.1110631</v>
+        <v>-425.4985001110632</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-54682.07082035685</v>
+        <v>-0.05468207082035569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-583893.994808147</v>
+        <v>-0.5838939948081772</v>
       </c>
       <c r="E7">
-        <v>-158882.3421535403</v>
+        <v>-0.1588823421535369</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-604920949.8416866</v>
+        <v>-604.9209498416867</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-333465136.8563608</v>
+        <v>-333.4651368563607</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-8510.526924988404</v>
+        <v>-0.008510526924986696</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-547742.9782701432</v>
+        <v>-0.5477429782701994</v>
       </c>
       <c r="E7">
-        <v>-24727.89399737843</v>
+        <v>-0.02472789399737347</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-467116950.8727795</v>
+        <v>-467.1169508727799</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-257559923.9103508</v>
+        <v>-257.5599239103507</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-95.78303928226676</v>
+        <v>-9.578303928226673E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-53.29400215797405</v>
+        <v>-5.329400215797404E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-16306.59384957895</v>
+        <v>-0.01630659384957722</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1356284.668665194</v>
+        <v>-1.356284668665277</v>
       </c>
       <c r="E7">
-        <v>-47379.87761800551</v>
+        <v>-0.04737987761800047</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-367248481.6579053</v>
+        <v>-367.2484816579059</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-198594728.0774182</v>
+        <v>-198.5947280774182</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-47701.83031624514</v>
+        <v>-0.04770183031624286</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2867718.308096782</v>
+        <v>-2.86771830809682</v>
       </c>
       <c r="E7">
-        <v>-138600.7956895865</v>
+        <v>-0.1386007956895799</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-302121295.2049722</v>
+        <v>-302.1212952049722</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-155778991.6496828</v>
+        <v>-155.7789916496826</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-129057.0472104277</v>
+        <v>-0.1290570472104228</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5120849.279560064</v>
+        <v>-5.120849279560007</v>
       </c>
       <c r="E7">
-        <v>-374983.7126610662</v>
+        <v>-0.3749837126610522</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-269065329.5268282</v>
+        <v>-269.0653295268276</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127113829.054203</v>
+        <v>-127.113829054203</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-297745.1053383757</v>
+        <v>-0.2977451053383685</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7945820.55531833</v>
+        <v>-7.945820555318305</v>
       </c>
       <c r="E7">
-        <v>-865117.9260625698</v>
+        <v>-0.8651179260625491</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-262992574.8749159</v>
+        <v>-262.9925748749155</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109956446.0569336</v>
+        <v>-109.9564460569335</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-542042.1776614024</v>
+        <v>-0.5420421776613978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10933419.50148275</v>
+        <v>-10.93341950148279</v>
       </c>
       <c r="E7">
-        <v>-1574939.087727237</v>
+        <v>-1.574939087727224</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275707490.5538035</v>
+        <v>-275.7074905538037</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101571418.4125492</v>
+        <v>-101.5714184125491</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-761890.6391043025</v>
+        <v>-0.7618906391043017</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13723453.36056322</v>
+        <v>-13.72345336056325</v>
       </c>
       <c r="E7">
-        <v>-2213723.207437214</v>
+        <v>-2.213723207437211</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-297752776.9127684</v>
+        <v>-297.7527769127685</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99511917.64322159</v>
+        <v>-99.51191764322159</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-905458.7548498166</v>
+        <v>-0.905458754849818</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16190036.69022097</v>
+        <v>-16.19003669022098</v>
       </c>
       <c r="E7">
-        <v>-2630869.78118632</v>
+        <v>-2.630869781186324</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-323357143.7502406</v>
+        <v>-323.3571437502408</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101777907.029754</v>
+        <v>-101.7779070297539</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-937499.4529685908</v>
+        <v>-0.937499452968595</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16779715.97473448</v>
+        <v>-16.77971597473448</v>
       </c>
       <c r="E7">
-        <v>-2723966.130409623</v>
+        <v>-2.723966130409636</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337486084.7735053</v>
+        <v>-337.4860847735053</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106805930.022688</v>
+        <v>-106.805930022688</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-715881.3823066468</v>
+        <v>-0.7158813823066523</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12708992.28362611</v>
+        <v>-12.7089922836261</v>
       </c>
       <c r="E7">
-        <v>-2080040.29508427</v>
+        <v>-2.080040295084286</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-314154046.1683999</v>
+        <v>-314.1540461683998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113389264.2235971</v>
+        <v>-113.389264223597</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-326922.1563440866</v>
+        <v>-0.3269221563440919</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5706102.870695112</v>
+        <v>-5.706102870695079</v>
       </c>
       <c r="E7">
-        <v>-949893.760835727</v>
+        <v>-0.9498937608357427</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-266433430.0468065</v>
+        <v>-266.4334300468064</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-120599622.5170939</v>
+        <v>-120.599622517094</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.551001436666004E-12</v>
+        <v>-5.551001436666002E-18</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11506,16 +11506,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.88241752310029E-09</v>
+        <v>-3.882417523100292E-15</v>
       </c>
       <c r="E7">
-        <v>-1.612879864137899E-11</v>
+        <v>-1.612879864137899E-17</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-313.2677901910699</v>
+        <v>-0.0003132677901910699</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-174.3032420984777</v>
+        <v>-0.0001743032420984777</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-92220.87966078431</v>
+        <v>-0.09222087966078588</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1559761.757223537</v>
+        <v>-1.559761757223496</v>
       </c>
       <c r="E7">
-        <v>-267953.8125778239</v>
+        <v>-0.2679538125778285</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-243211186.9918133</v>
+        <v>-243.211186991813</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127728313.7351084</v>
+        <v>-127.7283137351084</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-88371.5019261687</v>
+        <v>-0.08837150192616879</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1512091.594234109</v>
+        <v>-1.512091594234097</v>
       </c>
       <c r="E7">
-        <v>-256769.1931745343</v>
+        <v>-0.2567691931745346</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254463037.799456</v>
+        <v>-254.4630377994557</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134234900.0751244</v>
+        <v>-134.2349000751244</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-203512.1840784329</v>
+        <v>-0.2035121840784329</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3495410.454933774</v>
+        <v>-3.49541045493376</v>
       </c>
       <c r="E7">
-        <v>-591317.9946931795</v>
+        <v>-0.5913179946931795</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-281583644.941337</v>
+        <v>-281.5836449413367</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-139695807.1899707</v>
+        <v>-139.6958071899706</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-374712.923501771</v>
+        <v>-0.374712923501772</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6437418.046862648</v>
+        <v>-6.437418046862629</v>
       </c>
       <c r="E7">
-        <v>-1088752.968349512</v>
+        <v>-1.088752968349515</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-314573133.6430456</v>
+        <v>-314.5731336430453</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-143762267.6696263</v>
+        <v>-143.7622676696262</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-433230.0327380623</v>
+        <v>-0.4332300327380654</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7441137.704455795</v>
+        <v>-7.441137704455794</v>
       </c>
       <c r="E7">
-        <v>-1258778.266075715</v>
+        <v>-1.258778266075725</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-327617755.2358934</v>
+        <v>-327.6177552358933</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-146143918.0511018</v>
+        <v>-146.1439180511017</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-297342.2642757843</v>
+        <v>-0.2973422642757862</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5082940.0902862</v>
+        <v>-5.082940090286239</v>
       </c>
       <c r="E7">
-        <v>-863947.4449417944</v>
+        <v>-0.8639474449417999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-307933154.5728284</v>
+        <v>-307.9331545728286</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-146626785.4730847</v>
+        <v>-146.6267854730846</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-136512.5618844992</v>
+        <v>-0.1365125618844984</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2296968.574442198</v>
+        <v>-2.296968574442231</v>
       </c>
       <c r="E7">
-        <v>-396646.1993885364</v>
+        <v>-0.3966461993885341</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-280937728.1153567</v>
+        <v>-280.9377281153567</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-145120195.1689925</v>
+        <v>-145.1201951689923</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-99731.84701071725</v>
+        <v>-0.09973184701071719</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1646383.958172038</v>
+        <v>-1.646383958172026</v>
       </c>
       <c r="E7">
-        <v>-289777.4206909215</v>
+        <v>-0.2897774206909213</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-269163535.3669642</v>
+        <v>-269.1635353669638</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-141714285.9510762</v>
+        <v>-141.7142859510761</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-215332.0374616801</v>
+        <v>-0.2153320374616806</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3579113.204448697</v>
+        <v>-3.579113204448662</v>
       </c>
       <c r="E7">
-        <v>-625661.3537003999</v>
+        <v>-0.6256613537004013</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-277138429.6920583</v>
+        <v>-277.1384296920579</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-136722302.1641746</v>
+        <v>-136.7223021641745</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-409407.5059980877</v>
+        <v>-0.4094075059980892</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6959313.908173212</v>
+        <v>-6.959313908173173</v>
       </c>
       <c r="E7">
-        <v>-1189560.352641218</v>
+        <v>-1.189560352641222</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-295725174.5300348</v>
+        <v>-295.7251745300345</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130682138.3103558</v>
+        <v>-130.6821383103557</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.500214794786619E-10</v>
+        <v>-3.500214794786617E-16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.788469574754188E-07</v>
+        <v>-1.788469574754189E-13</v>
       </c>
       <c r="E7">
-        <v>-1.017010358775842E-09</v>
+        <v>-1.017010358775842E-15</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-894.6044944780998</v>
+        <v>-0.0008946044944780999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-497.7609203705427</v>
+        <v>-0.0004977609203705429</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-520491.1056808388</v>
+        <v>-0.5204911056808413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9339851.354539512</v>
+        <v>-9.339851354539535</v>
       </c>
       <c r="E7">
-        <v>-1512321.035030579</v>
+        <v>-1.512321035030586</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-304373447.7422469</v>
+        <v>-304.3734477422472</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-124301870.3823897</v>
+        <v>-124.3018703823897</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-468629.5241297301</v>
+        <v>-0.4686295241297301</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9244937.362709431</v>
+        <v>-9.244937362709504</v>
       </c>
       <c r="E7">
-        <v>-1361633.809382214</v>
+        <v>-1.361633809382214</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-291731537.271112</v>
+        <v>-291.7315372711127</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118353260.575673</v>
+        <v>-118.3532605756731</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-398535.6821422723</v>
+        <v>-0.3985356821422689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8550246.860331327</v>
+        <v>-8.550246860331345</v>
       </c>
       <c r="E7">
-        <v>-1157971.555586194</v>
+        <v>-1.157971555586184</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276296093.7928859</v>
+        <v>-276.2960937928861</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113538742.8587283</v>
+        <v>-113.5387428587283</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-418721.2851401943</v>
+        <v>-0.4187212851401931</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8888836.722408021</v>
+        <v>-8.888836722408019</v>
       </c>
       <c r="E7">
-        <v>-1216622.148622942</v>
+        <v>-1.216622148622939</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-273569204.6239275</v>
+        <v>-273.5692046239278</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110370498.7294859</v>
+        <v>-110.3704987294861</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-513085.934035907</v>
+        <v>-0.5130859340359086</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10195630.02525446</v>
+        <v>-10.19563002525449</v>
       </c>
       <c r="E7">
-        <v>-1490804.823275158</v>
+        <v>-1.490804823275163</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-283130827.7820932</v>
+        <v>-283.1308277820938</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109096809.2884785</v>
+        <v>-109.0968092884788</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-589163.6393422161</v>
+        <v>-0.589163639342217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11270941.53811115</v>
+        <v>-11.2709415381112</v>
       </c>
       <c r="E7">
-        <v>-1711853.584293062</v>
+        <v>-1.711853584293066</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-293913855.6408181</v>
+        <v>-293.913855640819</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109691897.7715441</v>
+        <v>-109.6918977715444</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-624545.980029023</v>
+        <v>-0.6245459800290204</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11772436.92565127</v>
+        <v>-11.77243692565124</v>
       </c>
       <c r="E7">
-        <v>-1814659.295102054</v>
+        <v>-1.814659295102046</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-302412737.5291326</v>
+        <v>-302.4127375291328</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111901460.599196</v>
+        <v>-111.9014605991962</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-651588.7073482028</v>
+        <v>-0.6515887073482015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11952281.38681617</v>
+        <v>-11.95228138681607</v>
       </c>
       <c r="E7">
-        <v>-1893233.712461012</v>
+        <v>-1.893233712461008</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-310527782.7462338</v>
+        <v>-310.5277827462334</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115319837.6407745</v>
+        <v>-115.3198376407748</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-688236.8131251221</v>
+        <v>-0.6882368131251251</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12033287.44165001</v>
+        <v>-12.03328744164994</v>
       </c>
       <c r="E7">
-        <v>-1999717.186732801</v>
+        <v>-1.99971718673281</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-319471607.2718499</v>
+        <v>-319.4716072718498</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119472463.8017876</v>
+        <v>-119.4724638017879</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-713350.7708538725</v>
+        <v>-0.7133507708538754</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11980742.71905486</v>
+        <v>-11.98074271905488</v>
       </c>
       <c r="E7">
-        <v>-2072687.43758152</v>
+        <v>-2.072687437581529</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-327626687.6472914</v>
+        <v>-327.6266876472919</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-123885571.7089517</v>
+        <v>-123.8855717089519</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.00228718665932842</v>
+        <v>-0.002287186768464547</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.001272598257205793</v>
+        <v>-0.001272598317929498</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6836388549154357</v>
+        <v>-3.477289719583211</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.44937639636004</v>
+        <v>-64.39056930565428</v>
       </c>
       <c r="E7">
-        <v>-1.986357517676392</v>
+        <v>-10.10349327860737</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-330.6569044615719</v>
+        <v>-2023.785180603725</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128.1360865481715</v>
+        <v>-816.9374096540793</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5909531549019549</v>
+        <v>-4.257611876715205</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.18888611060167</v>
+        <v>-79.12540873988017</v>
       </c>
       <c r="E7">
-        <v>-1.717053139086544</v>
+        <v>-12.37077047018878</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-325.9185887172925</v>
+        <v>-2194.917406689296</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131.8822755988689</v>
+        <v>-841.6297361857052</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.005338389427300422</v>
+        <v>-0.0053383900198518</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.002970297299528548</v>
+        <v>-0.002970297629226109</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01161079187055819</v>
+        <v>-0.01161079453063363</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.00646027838704948</v>
+        <v>-0.00646027986712432</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.02394003691553225</v>
+        <v>-0.02394004722478009</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.01332026479415018</v>
+        <v>-0.01332027053025002</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.04739576445385618</v>
+        <v>-0.04739579996581635</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.02637071923032273</v>
+        <v>-0.02637073898929567</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0908363307445461</v>
+        <v>-0.09083644172206536</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.05053844243534981</v>
+        <v>-0.05053850418361126</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.1690024706235069</v>
+        <v>-0.169002790091947</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.09401359367901543</v>
+        <v>-0.09401377143231981</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.3049316515087998</v>
+        <v>-0.3049325088465317</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1695552455245817</v>
+        <v>-0.169555722550152</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.5326698582553903</v>
+        <v>-0.5326720242086121</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2958383392183481</v>
+        <v>-0.2958395443619365</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.9007855547957033</v>
+        <v>-0.9007907481330077</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.498779415279917</v>
+        <v>-0.4987823048700946</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.478631857240594</v>
+        <v>-1.478643755310327</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.8127735780484368</v>
+        <v>-0.8127801981740744</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.371590561877394</v>
+        <v>-2.371616752091164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.281744148501395</v>
+        <v>-1.281758720823589</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.763490537108451</v>
+        <v>-3.763546172441543</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.959875808837294</v>
+        <v>-1.959906764521975</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6.034042340366801</v>
+        <v>-6.034156786966529</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.911859670496133</v>
+        <v>-2.9119233489655</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-10.05513496200703</v>
+        <v>-10.05536354043714</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4.212395223567942</v>
+        <v>-4.212522405367964</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.008770005613287904</v>
+        <v>-0.008770005613287906</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.9389819517928479</v>
+        <v>-0.938981951792848</v>
       </c>
       <c r="E7">
-        <v>-0.02548182633968843</v>
+        <v>-0.02548182633968844</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-17.7695374919538</v>
+        <v>-17.76998162863744</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.944607504760657</v>
+        <v>-5.944854623891074</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02417411099431142</v>
+        <v>-0.02417411099431144</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.338871384210943</v>
+        <v>-2.338871384210944</v>
       </c>
       <c r="E7">
-        <v>-0.07023946453809121</v>
+        <v>-0.07023946453809124</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-32.43770096325228</v>
+        <v>-32.43854182213852</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-8.197041155149284</v>
+        <v>-8.197509011834899</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05710639488070463</v>
+        <v>-0.05710639488070464</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.593929056879821</v>
+        <v>-4.593929056879829</v>
       </c>
       <c r="E7">
-        <v>-0.1659263746685605</v>
+        <v>-0.1659263746685606</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-54.88569811172911</v>
+        <v>-54.88725122586688</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-11.05911542091583</v>
+        <v>-11.05997957879624</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.102211304780186</v>
+        <v>-0.1022113047801863</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.343796233558829</v>
+        <v>-6.343796233558884</v>
       </c>
       <c r="E7">
-        <v>-0.2969816478127908</v>
+        <v>-0.2969816478127915</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-75.17736964464909</v>
+        <v>-75.18017138507511</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-14.61489731979977</v>
+        <v>-14.61645621750658</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1157349113991057</v>
+        <v>-0.1157349113991076</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.800599950036283</v>
+        <v>-6.800599950036675</v>
       </c>
       <c r="E7">
-        <v>-0.3362753735576685</v>
+        <v>-0.336275373557674</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-86.61304591610505</v>
+        <v>-86.61798699446481</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-18.93506492801956</v>
+        <v>-18.93781416047853</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0772341224759026</v>
+        <v>-0.07723412247591574</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.236592564125663</v>
+        <v>-7.236592564128245</v>
       </c>
       <c r="E7">
-        <v>-0.2244088069279288</v>
+        <v>-0.224408806927967</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-98.09702215484624</v>
+        <v>-98.10554891040141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-24.06788876780985</v>
+        <v>-24.07263308299695</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05488885053239242</v>
+        <v>-0.05488885053247732</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.950854944504504</v>
+        <v>-7.950854944520409</v>
       </c>
       <c r="E7">
-        <v>-0.1594831541649576</v>
+        <v>-0.1594831541652043</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-113.5004381795544</v>
+        <v>-113.5148492549679</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-30.03048227256713</v>
+        <v>-30.03850064287178</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08837301635433348</v>
+        <v>-0.08837301635484657</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.703553930969653</v>
+        <v>-8.703553931061498</v>
       </c>
       <c r="E7">
-        <v>-0.2567735934448649</v>
+        <v>-0.2567735934463557</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-131.9904124546964</v>
+        <v>-132.014286631417</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36.80160811742844</v>
+        <v>-36.81489178851161</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1378687661098198</v>
+        <v>-0.1378687661127322</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.518132518327045</v>
+        <v>-9.518132518826487</v>
       </c>
       <c r="E7">
-        <v>-0.4005867396885803</v>
+        <v>-0.4005867396970423</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-152.6609095015236</v>
+        <v>-152.6997098138096</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-44.31820893913036</v>
+        <v>-44.33979756007626</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1948899529820448</v>
+        <v>-0.1948899529976341</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.14062213974321</v>
+        <v>-10.14062214231081</v>
       </c>
       <c r="E7">
-        <v>-0.5662655369015986</v>
+        <v>-0.5662655369468945</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-173.2653188950385</v>
+        <v>-173.3272283347156</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-52.47896599601344</v>
+        <v>-52.51341260383386</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2697278705325979</v>
+        <v>-0.2697278706115757</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.83446454192657</v>
+        <v>-10.83446455444833</v>
       </c>
       <c r="E7">
-        <v>-0.7837120133049557</v>
+        <v>-0.7837120135344305</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-195.7570359189584</v>
+        <v>-195.854090475715</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-61.15914600124409</v>
+        <v>-61.21314742789849</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3230855423042858</v>
+        <v>-0.3230855426841854</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.93511280902295</v>
+        <v>-10.93511286712214</v>
       </c>
       <c r="E7">
-        <v>-0.9387462271846098</v>
+        <v>-0.9387462282884331</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-214.1091178730786</v>
+        <v>-214.2587124137171</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-70.24140026060627</v>
+        <v>-70.32463491964882</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3626346164198296</v>
+        <v>-0.3626346181596552</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.51446746881146</v>
+        <v>-10.51446772590189</v>
       </c>
       <c r="E7">
-        <v>-1.053658655174486</v>
+        <v>-1.053658660229663</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-228.9269405796345</v>
+        <v>-229.1537909751114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-79.66635369198332</v>
+        <v>-79.79257293726765</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5231127278647046</v>
+        <v>-0.5231127354675589</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.52509535833599</v>
+        <v>-10.52509644527929</v>
       </c>
       <c r="E7">
-        <v>-1.519938330179892</v>
+        <v>-1.519938352270483</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250.5718290945449</v>
+        <v>-250.9104789223658</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89.50393095206769</v>
+        <v>-89.69235231517359</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8404942479844931</v>
+        <v>-0.8404942797380079</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.34750830605527</v>
+        <v>-10.34751270202385</v>
       </c>
       <c r="E7">
-        <v>-2.44211114690706</v>
+        <v>-2.442111239168979</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275.8955866381067</v>
+        <v>-276.3935487587234</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100.0407401086992</v>
+        <v>-100.3177895599747</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.178331933150186</v>
+        <v>-1.178332060028875</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.27549051292128</v>
+        <v>-10.27550752956089</v>
       </c>
       <c r="E7">
-        <v>-3.423720692441556</v>
+        <v>-3.423721061095906</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-304.8109131143236</v>
+        <v>-305.532540174062</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111.8703072953822</v>
+        <v>-112.2717519811684</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.517614116242592</v>
+        <v>-1.517614601452578</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.17312908481809</v>
+        <v>-10.17319212973278</v>
       </c>
       <c r="E7">
-        <v>-4.409527321414718</v>
+        <v>-4.409528731224148</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337.6095848917046</v>
+        <v>-338.640787913712</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-125.9646986047302</v>
+        <v>-126.538200096715</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.570747731920956</v>
+        <v>-1.570749507422132</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.725185197679552</v>
+        <v>-9.725408628434392</v>
       </c>
       <c r="E7">
-        <v>-4.563910525624348</v>
+        <v>-4.56391568445943</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-367.4942884038103</v>
+        <v>-368.9483306806573</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-143.701044826195</v>
+        <v>-144.5091448888066</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.378568634792155</v>
+        <v>-1.378574846972346</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.142810477635877</v>
+        <v>-9.143567168934252</v>
       </c>
       <c r="E7">
-        <v>-4.005521558149297</v>
+        <v>-4.005539608046162</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-400.1230619496395</v>
+        <v>-402.14801658725</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-166.8172686545135</v>
+        <v>-167.9407946310433</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.350678128574459</v>
+        <v>-1.350698886479536</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.310779826103071</v>
+        <v>-8.313225284730329</v>
       </c>
       <c r="E7">
-        <v>-3.924483863613674</v>
+        <v>-3.924544177067928</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-448.1091994540625</v>
+        <v>-450.8986963242819</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-197.281397656517</v>
+        <v>-198.8232435334338</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.24182467239143</v>
+        <v>-1.241890806603819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.181923828575385</v>
+        <v>-8.189451007711181</v>
       </c>
       <c r="E7">
-        <v>-3.608203009388438</v>
+        <v>-3.608395166678811</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-516.0539846992596</v>
+        <v>-519.8655213306176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-237.0776910657948</v>
+        <v>-239.1668952054455</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.077324578529103</v>
+        <v>-1.077525029626041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.413069237654154</v>
+        <v>-9.435077135970696</v>
       </c>
       <c r="E7">
-        <v>-3.130237200756447</v>
+        <v>-3.130819624561743</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-612.4854541171474</v>
+        <v>-617.6765429517852</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-287.9349448339857</v>
+        <v>-290.7309500263011</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9170465775336449</v>
+        <v>-0.9176227942216205</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.65963089418169</v>
+        <v>-12.72051830217405</v>
       </c>
       <c r="E7">
-        <v>-2.664538959782628</v>
+        <v>-2.666213195150822</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-745.7811228981506</v>
+        <v>-752.8851342764203</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-351.0383645002775</v>
+        <v>-354.7353158833525</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.018249687764483</v>
+        <v>-1.019813526635373</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-19.270990892695</v>
+        <v>-19.42946926251621</v>
       </c>
       <c r="E7">
-        <v>-2.958591232227154</v>
+        <v>-2.963135068604055</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-932.7318382571458</v>
+        <v>-942.6121447602791</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-426.7681862659417</v>
+        <v>-431.5991049057414</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.57631090232483</v>
+        <v>-1.580290521833815</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-29.2260606222553</v>
+        <v>-29.61072237736044</v>
       </c>
       <c r="E7">
-        <v>-4.580074681997843</v>
+        <v>-4.591637727416232</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1176.784777735983</v>
+        <v>-1190.9128966264</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-514.4956352233339</v>
+        <v>-520.736307956495</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4.32397111314294E-06</v>
+        <v>-4.323971113161025E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.405871932668159E-06</v>
+        <v>-2.405871932678221E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.244920136286288</v>
+        <v>-2.254315663874488</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-40.86051059042752</v>
+        <v>-41.71967193220082</v>
       </c>
       <c r="E7">
-        <v>-6.522762650532746</v>
+        <v>-6.550061971984664</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1454.186740864925</v>
+        <v>-1475.031726044419</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-612.4492574833214</v>
+        <v>-620.4217156114784</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.131882064991609</v>
+        <v>-3.152127706947573</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-56.95059037464235</v>
+        <v>-58.6828222540695</v>
       </c>
       <c r="E7">
-        <v>-9.099888690559389</v>
+        <v>-9.158713730725356</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1782.526286094585</v>
+        <v>-1813.804495420474</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-717.6557325318815</v>
+        <v>-727.7312610496407</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.449042303618601</v>
+        <v>-4.487898144380709</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80.62356895095937</v>
+        <v>-83.69819873409357</v>
       </c>
       <c r="E7">
-        <v>-12.92698412723522</v>
+        <v>-13.03988232026288</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2182.368275291068</v>
+        <v>-2228.463500072045</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-825.9662065631376</v>
+        <v>-838.5679378487184</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.357051081553568</v>
+        <v>-5.421233178965013</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-96.65703497783315</v>
+        <v>-101.3410141324872</v>
       </c>
       <c r="E7">
-        <v>-15.56526316769494</v>
+        <v>-15.75174846000507</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2512.641323992753</v>
+        <v>-2576.528199931242</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-932.1954594686727</v>
+        <v>-947.8007634895635</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.450213259936686</v>
+        <v>-5.537752042610155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-98.07246961588129</v>
+        <v>-104.1456827205599</v>
       </c>
       <c r="E7">
-        <v>-15.83595198542942</v>
+        <v>-16.09030165821564</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2701.774220987757</v>
+        <v>-2782.753958612161</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1030.409558194976</v>
+        <v>-1049.55264305241</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.378224261476699</v>
+        <v>-5.473939885637339</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-96.79124369260687</v>
+        <v>-103.7339740190078</v>
       </c>
       <c r="E7">
-        <v>-15.62678323024117</v>
+        <v>-15.90489125210615</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2841.573106889879</v>
+        <v>-2936.542344837412</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1114.382293110486</v>
+        <v>-1137.657666146424</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.252888748442777</v>
+        <v>-5.34119289006618</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-94.49279763258936</v>
+        <v>-102.0312203709438</v>
       </c>
       <c r="E7">
-        <v>-15.26261267914287</v>
+        <v>-15.51918615254105</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2936.408994475013</v>
+        <v>-3044.172121904708</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1178.199197471233</v>
+        <v>-1206.266890415822</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.064617613802469</v>
+        <v>-5.151837286433199</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-90.72754101441845</v>
+        <v>-98.9149023775082</v>
       </c>
       <c r="E7">
-        <v>-14.71557855291478</v>
+        <v>-14.96900103054847</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2973.904613870538</v>
+        <v>-3096.323239696888</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1216.933802862411</v>
+        <v>-1250.527506257386</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.896880658589263</v>
+        <v>-5.009407515243227</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-87.30255722713926</v>
+        <v>-96.20780902890139</v>
       </c>
       <c r="E7">
-        <v>-14.22820783139382</v>
+        <v>-14.55516199154427</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2963.361024074818</v>
+        <v>-3103.052273816507</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1227.276686947678</v>
+        <v>-1267.21612921246</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.734075834343612</v>
+        <v>-4.894711882273583</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-84.07611515382192</v>
+        <v>-93.67762469845692</v>
       </c>
       <c r="E7">
-        <v>-13.75516773978824</v>
+        <v>-14.22190630960664</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2901.130120334377</v>
+        <v>-3060.148190883869</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1207.985504799037</v>
+        <v>-1255.194497996508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.411679058346222E-05</v>
+        <v>-2.411679058566174E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.34186626257578E-05</v>
+        <v>-1.341866262698162E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.32199778345099</v>
+        <v>-4.542578132592927</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-76.37089390710761</v>
+        <v>-86.56171533009014</v>
       </c>
       <c r="E7">
-        <v>-12.5578479438541</v>
+        <v>-13.19875861126192</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2748.606027993997</v>
+        <v>-2928.347144389716</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1160.054812027021</v>
+        <v>-1215.586308295105</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.377176817295955</v>
+        <v>-3.666372174054379</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-59.01442577824226</v>
+        <v>-69.6051844929822</v>
       </c>
       <c r="E7">
-        <v>-9.812608676825498</v>
+        <v>-10.65288474780051</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2466.612877128782</v>
+        <v>-2668.08485914522</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1086.572964613787</v>
+        <v>-1151.642158459181</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.913095398484729</v>
+        <v>-2.282243947953478</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-32.04004924411724</v>
+        <v>-42.75503665491374</v>
       </c>
       <c r="E7">
-        <v>-5.55862411782068</v>
+        <v>-6.631209432573288</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2064.306275015633</v>
+        <v>-2288.315920101884</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-992.3167185680963</v>
+        <v>-1068.34262864064</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9332184291540008</v>
+        <v>-1.414332444278195</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.23159400656228</v>
+        <v>-23.8267463742338</v>
       </c>
       <c r="E7">
-        <v>-2.71152733501887</v>
+        <v>-4.109435651566546</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1706.786307568265</v>
+        <v>-1955.328114920272</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-883.1974687500744</v>
+        <v>-971.8524918266854</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8419491201046101</v>
+        <v>-1.504819922135367</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.25664306037548</v>
+        <v>-20.6968731458505</v>
       </c>
       <c r="E7">
-        <v>-2.446338373244875</v>
+        <v>-4.37235295154857</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1471.600765552768</v>
+        <v>-1749.669361396398</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-765.6855531688988</v>
+        <v>-868.9511869502345</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8028629856002566</v>
+        <v>-1.720171652775607</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.18933537305481</v>
+        <v>-19.5004005260763</v>
       </c>
       <c r="E7">
-        <v>-2.332771046649261</v>
+        <v>-4.998071525070513</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1248.265042117021</v>
+        <v>-1562.031022849147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-646.2943814950713</v>
+        <v>-766.5196928633902</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6124842954864571</v>
+        <v>-1.791817875766604</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.81254157662331</v>
+        <v>-16.95000332692698</v>
       </c>
       <c r="E7">
-        <v>-1.779613279805088</v>
+        <v>-5.206244323658579</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1019.284240727897</v>
+        <v>-1373.589103282536</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-531.134142879609</v>
+        <v>-671.0917093615273</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2933245521292687</v>
+        <v>-1.650213122954584</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.095262362053966</v>
+        <v>-12.97149050908847</v>
       </c>
       <c r="E7">
-        <v>-0.8522737188674064</v>
+        <v>-4.794802429646195</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-794.4907076823962</v>
+        <v>-1192.474625154739</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-425.4985001110632</v>
+        <v>-588.4306446745004</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05468207082035569</v>
+        <v>-1.44292480583033</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.5838939948081772</v>
+        <v>-10.05725799368651</v>
       </c>
       <c r="E7">
-        <v>-0.1588823421535369</v>
+        <v>-4.192512632795514</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-604.9209498416867</v>
+        <v>-1048.727746106023</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-333.4651368563607</v>
+        <v>-523.1115584012697</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.008510526924986696</v>
+        <v>-1.32674465129793</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.5477429782701994</v>
+        <v>-9.607473593222446</v>
       </c>
       <c r="E7">
-        <v>-0.02472789399737347</v>
+        <v>-3.854943576120433</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-467.1169508727799</v>
+        <v>-961.8261746796435</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-257.5599239103507</v>
+        <v>-478.1566137148629</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-9.578303928226673E-05</v>
+        <v>-9.578303937257405E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.329400215797404E-05</v>
+        <v>-5.329400220822133E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01630659384957722</v>
+        <v>-1.237546236676149</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.356284668665277</v>
+        <v>-10.37740083567781</v>
       </c>
       <c r="E7">
-        <v>-0.04737987761800047</v>
+        <v>-3.595771733889922</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-367.2484816579059</v>
+        <v>-923.3844298997193</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-198.5947280774182</v>
+        <v>-454.8337099762342</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04770183031624286</v>
+        <v>-1.160748275449951</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.86771830809682</v>
+        <v>-12.75145702133775</v>
       </c>
       <c r="E7">
-        <v>-0.1386007956895799</v>
+        <v>-3.372630222071157</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-302.1212952049722</v>
+        <v>-935.1019711405989</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-155.7789916496826</v>
+        <v>-452.7192742558084</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1290570472104228</v>
+        <v>-1.180255294912385</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.120849279560007</v>
+        <v>-17.44127271980445</v>
       </c>
       <c r="E7">
-        <v>-0.3749837126610522</v>
+        <v>-3.429309146152291</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-269.0653295268276</v>
+        <v>-1001.026003051601</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127.113829054203</v>
+        <v>-470.0362798719252</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2977451053383685</v>
+        <v>-1.414263789111556</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.945820555318305</v>
+        <v>-25.05611194231448</v>
       </c>
       <c r="E7">
-        <v>-0.8651179260625491</v>
+        <v>-4.109236169478304</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-262.9925748749155</v>
+        <v>-1123.759951277753</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109.9564460569335</v>
+        <v>-504.1592103312416</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5420421776613978</v>
+        <v>-1.926638912750057</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.93341950148279</v>
+        <v>-35.83027045235561</v>
       </c>
       <c r="E7">
-        <v>-1.574939087727224</v>
+        <v>-5.597975686537501</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275.7074905538037</v>
+        <v>-1301.209397945511</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.5714184125491</v>
+        <v>-552.1079179458715</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7618906391043017</v>
+        <v>-2.666643768486729</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.72345336056325</v>
+        <v>-49.64935435032311</v>
       </c>
       <c r="E7">
-        <v>-2.213723207437211</v>
+        <v>-7.748108315396634</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-297.7527769127685</v>
+        <v>-1525.912229381994</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99.51191764322159</v>
+        <v>-610.8800310752102</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.905458754849818</v>
+        <v>-3.554213524420742</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16.19003669022098</v>
+        <v>-66.23955732300345</v>
       </c>
       <c r="E7">
-        <v>-2.630869781186324</v>
+        <v>-10.32700043729016</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-323.3571437502408</v>
+        <v>-1788.714097883139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.7779070297539</v>
+        <v>-677.5760526993782</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.937499452968595</v>
+        <v>-4.476114788253166</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16.77971597473448</v>
+        <v>-83.65895126863668</v>
       </c>
       <c r="E7">
-        <v>-2.723966130409636</v>
+        <v>-13.00564500642516</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337.4860847735053</v>
+        <v>-2067.594717251793</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106.805930022688</v>
+        <v>-749.3786361384768</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7158813823066523</v>
+        <v>-5.171454191370672</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.7089922836261</v>
+        <v>-96.98859109968427</v>
       </c>
       <c r="E7">
-        <v>-2.080040295084286</v>
+        <v>-15.02599923408228</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-314.1540461683998</v>
+        <v>-2315.202682226084</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113.389264223597</v>
+        <v>-823.4904920930929</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3269221563440919</v>
+        <v>-5.456916830661974</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.706102870695079</v>
+        <v>-102.8474907177707</v>
       </c>
       <c r="E7">
-        <v>-0.9498937608357427</v>
+        <v>-15.85542964971037</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-266.4334300468064</v>
+        <v>-2497.307382848683</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-120.599622517094</v>
+        <v>-897.1056869622188</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0003132677901910699</v>
+        <v>-0.0003132677917393197</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0001743032420984777</v>
+        <v>-0.0001743032429599291</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09222087966078588</v>
+        <v>-5.464324695991267</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.559761757223496</v>
+        <v>-103.6005117523466</v>
       </c>
       <c r="E7">
-        <v>-0.2679538125778285</v>
+        <v>-15.87695368814232</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-243.211186991813</v>
+        <v>-2629.394923868847</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127.7283137351084</v>
+        <v>-967.432941227083</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08837150192616879</v>
+        <v>-5.408771838077615</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.512091594234097</v>
+        <v>-103.0502343845954</v>
       </c>
       <c r="E7">
-        <v>-0.2567691931745346</v>
+        <v>-15.71554121699359</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254.4630377994557</v>
+        <v>-2739.627199271078</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134.2349000751244</v>
+        <v>-1031.756262767548</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2035121840784329</v>
+        <v>-5.398568415642208</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.49541045493376</v>
+        <v>-103.0055801703595</v>
       </c>
       <c r="E7">
-        <v>-0.5913179946931795</v>
+        <v>-15.68589450409119</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-281.5836449413367</v>
+        <v>-2839.273418574682</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-139.6958071899706</v>
+        <v>-1087.519107087832</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.374712923501772</v>
+        <v>-5.440468790207775</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.437418046862629</v>
+        <v>-103.5040883650559</v>
       </c>
       <c r="E7">
-        <v>-1.088752968349515</v>
+        <v>-15.80763878970829</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-314.5731336430453</v>
+        <v>-2924.656917237399</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-143.7622676696262</v>
+        <v>-1132.431863113662</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4332300327380654</v>
+        <v>-5.310030188514378</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.441137704455794</v>
+        <v>-100.5215044249868</v>
       </c>
       <c r="E7">
-        <v>-1.258778266075725</v>
+        <v>-15.42864087991142</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-327.6177552358933</v>
+        <v>-2957.492612824697</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-146.1439180511017</v>
+        <v>-1164.606746568854</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2973422642757862</v>
+        <v>-4.811116661079945</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.082940090286239</v>
+        <v>-90.49604290784076</v>
       </c>
       <c r="E7">
-        <v>-0.8639474449417999</v>
+        <v>-13.97901491327086</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-307.9331545728286</v>
+        <v>-2904.570843126492</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-146.6267854730846</v>
+        <v>-1182.71499705785</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1365125618844984</v>
+        <v>-4.010066455459365</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.296968574442231</v>
+        <v>-74.4585102099724</v>
       </c>
       <c r="E7">
-        <v>-0.3966461993885341</v>
+        <v>-11.65151101771261</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-280.9377281153567</v>
+        <v>-2773.947561883548</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-145.1201951689923</v>
+        <v>-1186.146846752084</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09973184701071719</v>
+        <v>-3.09618977712388</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.646383958172026</v>
+        <v>-55.58825338318709</v>
       </c>
       <c r="E7">
-        <v>-0.2897774206909213</v>
+        <v>-8.996182407893667</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-269.1635353669638</v>
+        <v>-2593.912681550617</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-141.7142859510761</v>
+        <v>-1175.143246583494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2153320374616806</v>
+        <v>-2.446488769064779</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.579113204448662</v>
+        <v>-40.52727520420358</v>
       </c>
       <c r="E7">
-        <v>-0.6256613537004013</v>
+        <v>-7.108433529489494</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-277.1384296920579</v>
+        <v>-2424.298595377389</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-136.7223021641745</v>
+        <v>-1150.863796249425</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4094075059980892</v>
+        <v>-2.260026357593238</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.959313908173173</v>
+        <v>-33.10678348141631</v>
       </c>
       <c r="E7">
-        <v>-1.189560352641222</v>
+        <v>-6.566654767022316</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-295.7251745300345</v>
+        <v>-2301.656982113814</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130.6821383103557</v>
+        <v>-1115.360032136495</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0008946044944780999</v>
+        <v>-0.0008946045100385557</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0004977609203705429</v>
+        <v>-0.0004977609290284323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5204911056808413</v>
+        <v>-2.31147033119495</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.339851354539535</v>
+        <v>-30.06508522634615</v>
       </c>
       <c r="E7">
-        <v>-1.512321035030586</v>
+        <v>-6.716128605392057</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-304.3734477422472</v>
+        <v>-2201.700579087073</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-124.3018703823897</v>
+        <v>-1071.438858974557</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4686295241297301</v>
+        <v>-2.315586513938896</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.244937362709504</v>
+        <v>-27.27650287938037</v>
       </c>
       <c r="E7">
-        <v>-1.361633809382214</v>
+        <v>-6.728088444243784</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-291.7315372711127</v>
+        <v>-2093.299404903183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118.3532605756731</v>
+        <v>-1022.425843945355</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3985356821422689</v>
+        <v>-2.200305485523765</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.550246860331345</v>
+        <v>-24.09308617811403</v>
       </c>
       <c r="E7">
-        <v>-1.157971555586184</v>
+        <v>-6.39313185745618</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276.2960937928861</v>
+        <v>-1976.33438928243</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113.5387428587283</v>
+        <v>-971.8648093749897</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4187212851401931</v>
+        <v>-2.039439594413293</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.888836722408019</v>
+        <v>-21.80538107026014</v>
       </c>
       <c r="E7">
-        <v>-1.216622148622939</v>
+        <v>-5.925725463206509</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-273.5692046239278</v>
+        <v>-1868.242799687281</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110.3704987294861</v>
+        <v>-923.207212243606</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5130859340359086</v>
+        <v>-1.917734079001052</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.19563002525449</v>
+        <v>-21.43726884557285</v>
       </c>
       <c r="E7">
-        <v>-1.490804823275163</v>
+        <v>-5.572102108209096</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-283.1308277820938</v>
+        <v>-1784.125930311315</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109.0968092884788</v>
+        <v>-879.543507612913</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.589163639342217</v>
+        <v>-1.848537368408717</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.2709415381112</v>
+        <v>-22.85274540283628</v>
       </c>
       <c r="E7">
-        <v>-1.711853584293066</v>
+        <v>-5.37104652850457</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-293.913855640819</v>
+        <v>-1727.869522513215</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109.6918977715444</v>
+        <v>-843.4097781778871</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6245459800290204</v>
+        <v>-1.841138160115302</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.77243692565124</v>
+        <v>-26.02878778313741</v>
       </c>
       <c r="E7">
-        <v>-1.814659295102046</v>
+        <v>-5.349547643657982</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-302.4127375291328</v>
+        <v>-1702.892593458169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111.9014605991962</v>
+        <v>-816.6769792091208</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6515887073482015</v>
+        <v>-1.947909508077453</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.95228138681607</v>
+        <v>-31.3993437544569</v>
       </c>
       <c r="E7">
-        <v>-1.893233712461008</v>
+        <v>-5.659778795928133</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-310.5277827462334</v>
+        <v>-1715.734271635708</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115.3198376407748</v>
+        <v>-800.5104172997873</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6882368131251251</v>
+        <v>-2.248171837653242</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.03328744164994</v>
+        <v>-39.6063044946312</v>
       </c>
       <c r="E7">
-        <v>-1.99971718673281</v>
+        <v>-6.532210682061452</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-319.4716072718498</v>
+        <v>-1773.859151272623</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119.4724638017879</v>
+        <v>-795.3803147677639</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7133507708538754</v>
+        <v>-2.774852706470107</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.98074271905488</v>
+        <v>-50.81894913165046</v>
       </c>
       <c r="E7">
-        <v>-2.072687437581529</v>
+        <v>-8.062516479733123</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-327.6266876472919</v>
+        <v>-1878.982354181014</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-123.8855717089519</v>
+        <v>-801.1078425283447</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.09083644172206536</v>
+        <v>-0.09083644172206537</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.9007907481330077</v>
+        <v>-0.9007907481330076</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-942.6121447602791</v>
+        <v>-942.6121447602792</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1190.9128966264</v>
+        <v>-1190.912896626401</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1475.031726044419</v>
+        <v>-1475.03172604442</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2936.542344837412</v>
+        <v>-2936.542344837413</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2288.315920101884</v>
+        <v>-2288.315920101883</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1192.474625154739</v>
+        <v>-1192.474625154738</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-935.1019711405989</v>
+        <v>-935.1019711405988</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1123.759951277753</v>
+        <v>-1123.759951277752</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b3.xlsx
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-942.6121447602792</v>
+        <v>-942.6121447602791</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1190.912896626401</v>
+        <v>-1190.9128966264</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2936.542344837413</v>
+        <v>-2936.542344837412</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2288.315920101883</v>
+        <v>-2288.315920101884</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1123.759951277752</v>
+        <v>-1123.759951277753</v>
       </c>
     </row>
     <row r="8" spans="1:7">
